--- a/data/Incendios-Forestales-2021.xlsx
+++ b/data/Incendios-Forestales-2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel Brito\Documents\Python\Dominican Republic\Datos Abiertos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP 15\Downloads\Samsung\Repositorio\sic-forest-fire-rd\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5B3F82-4D1A-4CA9-A212-E4829681FC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0CB1C0-A76E-48C1-B439-F97499C536D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9C335E22-CF0A-E849-BFB8-AAA567361A93}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9C335E22-CF0A-E849-BFB8-AAA567361A93}"/>
   </bookViews>
   <sheets>
     <sheet name="2021" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -820,19 +823,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -840,7 +842,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -857,9 +859,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -897,7 +899,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1003,7 +1005,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1145,7 +1147,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1155,69 +1157,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87353C5-2ABF-6842-BB28-922F55B6FC01}">
   <dimension ref="A1:N251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H252" sqref="H252"/>
+    <sheetView tabSelected="1" topLeftCell="D194" workbookViewId="0">
+      <selection activeCell="G202" sqref="G202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="10.85546875" style="4"/>
+    <col min="1" max="1" width="5.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
         <v>241</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>239</v>
       </c>
     </row>
@@ -1249,22 +1251,22 @@
       <c r="I2" s="1">
         <v>665</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <f>I2*628.8</f>
         <v>418151.99999999994</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>1</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="N2" s="4" t="str">
+      <c r="N2" s="3" t="str">
         <f xml:space="preserve"> TEXT(L2, "mmm-yyyy")</f>
-        <v>Jan-2021</v>
+        <v>may-2021</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1295,22 +1297,22 @@
       <c r="I3" s="1">
         <v>95</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <f t="shared" ref="J3:J66" si="0">I3*628.8</f>
         <v>59735.999999999993</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>1</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="N3" s="4" t="str">
+      <c r="N3" s="3" t="str">
         <f t="shared" ref="N3:N66" si="1" xml:space="preserve"> TEXT(L3, "mmm-yyyy")</f>
-        <v>Jan-2021</v>
+        <v>01/13/2021</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1341,22 +1343,22 @@
       <c r="I4" s="1">
         <v>1</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <f t="shared" si="0"/>
         <v>628.79999999999995</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>1</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="N4" s="4" t="str">
+      <c r="N4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Jan-2021</v>
+        <v>mar-2021</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1387,22 +1389,22 @@
       <c r="I5" s="1">
         <v>45</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <f t="shared" si="0"/>
         <v>28295.999999999996</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>1</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="N5" s="4" t="str">
+      <c r="N5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Jan-2021</v>
+        <v>01/16/2021</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1433,22 +1435,22 @@
       <c r="I6" s="1">
         <v>8</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f t="shared" si="0"/>
         <v>5030.3999999999996</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>1</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="N6" s="4" t="str">
+      <c r="N6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Jan-2021</v>
+        <v>01/15/2021</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1479,22 +1481,22 @@
       <c r="I7" s="1">
         <v>45</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <f t="shared" si="0"/>
         <v>28295.999999999996</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>1</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="N7" s="4" t="str">
+      <c r="N7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Jan-2021</v>
+        <v>01/17/2021</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1525,22 +1527,22 @@
       <c r="I8" s="1">
         <v>20</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <f t="shared" si="0"/>
         <v>12576</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>1</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="N8" s="4" t="str">
+      <c r="N8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Jan-2021</v>
+        <v>01/18/2021</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1571,22 +1573,22 @@
       <c r="I9" s="1">
         <v>35</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <f t="shared" si="0"/>
         <v>22008</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>1</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="N9" s="4" t="str">
+      <c r="N9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Jan-2021</v>
+        <v>01/23/2021</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1617,22 +1619,22 @@
       <c r="I10" s="1">
         <v>12</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <f t="shared" si="0"/>
         <v>7545.5999999999995</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>1</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N10" s="4" t="str">
+      <c r="N10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Jan-2021</v>
+        <v>01/25/2021</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1663,22 +1665,22 @@
       <c r="I11" s="1">
         <v>50</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <f t="shared" si="0"/>
         <v>31439.999999999996</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>1</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N11" s="4" t="str">
+      <c r="N11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Jan-2021</v>
+        <v>01/25/2021</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1709,22 +1711,22 @@
       <c r="I12" s="1">
         <v>250</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <f t="shared" si="0"/>
         <v>157200</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>1</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="N12" s="4" t="str">
+      <c r="N12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Jan-2021</v>
+        <v>01/27/2021</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1755,22 +1757,22 @@
       <c r="I13" s="1">
         <v>15</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <f t="shared" si="0"/>
         <v>9432</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>1</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="N13" s="4" t="str">
+      <c r="N13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Jan-2021</v>
+        <v>01/27/2021</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1801,22 +1803,22 @@
       <c r="I14" s="1">
         <v>66</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <f t="shared" si="0"/>
         <v>41500.799999999996</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>1</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="N14" s="4" t="str">
+      <c r="N14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Jan-2021</v>
+        <v>01/26/2021</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1847,22 +1849,22 @@
       <c r="I15" s="1">
         <v>70</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <f t="shared" si="0"/>
         <v>44016</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>1</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="N15" s="4" t="str">
+      <c r="N15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Jan-2021</v>
+        <v>01/26/2021</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1893,22 +1895,22 @@
       <c r="I16" s="1">
         <v>5</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <f t="shared" si="0"/>
         <v>3144</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>1</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="4" t="str">
+      <c r="N16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Jan-2021</v>
+        <v>01/20/2021</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1939,22 +1941,22 @@
       <c r="I17" s="1">
         <v>150</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <f t="shared" si="0"/>
         <v>94320</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>1</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="N17" s="4" t="str">
+      <c r="N17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Jan-2021</v>
+        <v>01/20/2021</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1985,22 +1987,22 @@
       <c r="I18" s="1">
         <v>40</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <f t="shared" si="0"/>
         <v>25152</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>1</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="N18" s="4" t="str">
+      <c r="N18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Jan-2021</v>
+        <v>01/24/2021</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2031,22 +2033,22 @@
       <c r="I19" s="1">
         <v>600</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <f t="shared" si="0"/>
         <v>377280</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <v>1</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="M19" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N19" s="4" t="str">
+      <c r="N19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Jan-2021</v>
+        <v>01/24/2021</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2077,22 +2079,22 @@
       <c r="I20" s="1">
         <v>250</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <f t="shared" si="0"/>
         <v>157200</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <v>1</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N20" s="4" t="str">
+      <c r="N20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Jan-2021</v>
+        <v>01/24/2021</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -2123,22 +2125,22 @@
       <c r="I21" s="1">
         <v>12</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <f t="shared" si="0"/>
         <v>7545.5999999999995</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <v>1</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="M21" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="N21" s="4" t="str">
+      <c r="N21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Jan-2021</v>
+        <v>01/18/2021</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -2169,22 +2171,22 @@
       <c r="I22" s="1">
         <v>426</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <f t="shared" si="0"/>
         <v>267868.79999999999</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <v>2</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="M22" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="N22" s="4" t="str">
+      <c r="N22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>feb-2021</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -2215,22 +2217,22 @@
       <c r="I23" s="1">
         <v>200</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <f t="shared" si="0"/>
         <v>125759.99999999999</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>2</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L23" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="M23" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="N23" s="4" t="str">
+      <c r="N23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>abr-2021</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2261,22 +2263,22 @@
       <c r="I24" s="1">
         <v>40</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <f t="shared" si="0"/>
         <v>25152</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <v>2</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="L24" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="M24" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="N24" s="4" t="str">
+      <c r="N24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>ago-2021</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2307,22 +2309,22 @@
       <c r="I25" s="1">
         <v>10</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <f t="shared" si="0"/>
         <v>6288</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <v>2</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="L25" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="M25" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N25" s="4" t="str">
+      <c r="N25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>jul-2021</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2353,22 +2355,22 @@
       <c r="I26" s="1">
         <v>8</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="5">
         <f t="shared" si="0"/>
         <v>5030.3999999999996</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <v>2</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="M26" s="5" t="s">
+      <c r="M26" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="N26" s="4" t="str">
+      <c r="N26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>sep-2021</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -2399,22 +2401,22 @@
       <c r="I27" s="1">
         <v>12</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <f t="shared" si="0"/>
         <v>7545.5999999999995</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="3">
         <v>2</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="M27" s="5" t="s">
+      <c r="M27" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="N27" s="4" t="str">
+      <c r="N27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>02/16/2021</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2445,22 +2447,22 @@
       <c r="I28" s="1">
         <v>4</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="5">
         <f t="shared" si="0"/>
         <v>2515.1999999999998</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="3">
         <v>2</v>
       </c>
-      <c r="L28" s="5" t="s">
+      <c r="L28" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M28" s="5" t="s">
+      <c r="M28" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="N28" s="4" t="str">
+      <c r="N28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>02/15/2021</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2491,22 +2493,22 @@
       <c r="I29" s="1">
         <v>50</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="5">
         <f t="shared" si="0"/>
         <v>31439.999999999996</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <v>2</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="L29" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="M29" s="5" t="s">
+      <c r="M29" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N29" s="4" t="str">
+      <c r="N29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>02/19/2021</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2537,22 +2539,22 @@
       <c r="I30" s="1">
         <v>50</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="5">
         <f t="shared" si="0"/>
         <v>31439.999999999996</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <v>2</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="L30" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="M30" s="5" t="s">
+      <c r="M30" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="N30" s="4" t="str">
+      <c r="N30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>02/20/2021</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2583,22 +2585,22 @@
       <c r="I31" s="1">
         <v>67</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="5">
         <f t="shared" si="0"/>
         <v>42129.599999999999</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="3">
         <v>2</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="L31" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="M31" s="5" t="s">
+      <c r="M31" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="N31" s="4" t="str">
+      <c r="N31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>02/22/2021</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2629,22 +2631,22 @@
       <c r="I32" s="1">
         <v>80</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="5">
         <f t="shared" si="0"/>
         <v>50304</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="3">
         <v>2</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="L32" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="M32" s="5" t="s">
+      <c r="M32" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="N32" s="4" t="str">
+      <c r="N32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>02/23/2021</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -2675,22 +2677,22 @@
       <c r="I33" s="1">
         <v>200</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="5">
         <f t="shared" si="0"/>
         <v>125759.99999999999</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="3">
         <v>2</v>
       </c>
-      <c r="L33" s="5" t="s">
+      <c r="L33" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="M33" s="5" t="s">
+      <c r="M33" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="N33" s="4" t="str">
+      <c r="N33" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>02/22/2021</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -2721,22 +2723,22 @@
       <c r="I34" s="1">
         <v>26</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="5">
         <f t="shared" si="0"/>
         <v>16348.8</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="3">
         <v>2</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="L34" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="M34" s="5" t="s">
+      <c r="M34" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="N34" s="4" t="str">
+      <c r="N34" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>02/17/2021</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -2767,22 +2769,22 @@
       <c r="I35" s="1">
         <v>50</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="5">
         <f t="shared" si="0"/>
         <v>31439.999999999996</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="3">
         <v>2</v>
       </c>
-      <c r="L35" s="5" t="s">
+      <c r="L35" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="M35" s="5" t="s">
+      <c r="M35" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N35" s="4" t="str">
+      <c r="N35" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>02/19/2021</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -2813,22 +2815,22 @@
       <c r="I36" s="1">
         <v>600</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="5">
         <f t="shared" si="0"/>
         <v>377280</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="3">
         <v>2</v>
       </c>
-      <c r="L36" s="5" t="s">
+      <c r="L36" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="M36" s="5" t="s">
+      <c r="M36" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="N36" s="4" t="str">
+      <c r="N36" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>02/24/2021</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -2859,22 +2861,22 @@
       <c r="I37" s="1">
         <v>110</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="5">
         <f t="shared" si="0"/>
         <v>69168</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="3">
         <v>2</v>
       </c>
-      <c r="L37" s="5" t="s">
+      <c r="L37" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="M37" s="5" t="s">
+      <c r="M37" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="N37" s="4" t="str">
+      <c r="N37" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>02/21/2021</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -2905,22 +2907,22 @@
       <c r="I38" s="1">
         <v>5</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="5">
         <f t="shared" si="0"/>
         <v>3144</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="3">
         <v>2</v>
       </c>
-      <c r="L38" s="5" t="s">
+      <c r="L38" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="M38" s="5" t="s">
+      <c r="M38" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N38" s="4" t="str">
+      <c r="N38" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>abr-2021</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -2951,22 +2953,22 @@
       <c r="I39" s="1">
         <v>100</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="5">
         <f t="shared" si="0"/>
         <v>62879.999999999993</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="3">
         <v>2</v>
       </c>
-      <c r="L39" s="5" t="s">
+      <c r="L39" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M39" s="5" t="s">
+      <c r="M39" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="N39" s="4" t="str">
+      <c r="N39" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>02/25/2021</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -2997,22 +2999,22 @@
       <c r="I40" s="1">
         <v>47</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="5">
         <f t="shared" si="0"/>
         <v>29553.599999999999</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40" s="3">
         <v>2</v>
       </c>
-      <c r="L40" s="5" t="s">
+      <c r="L40" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="M40" s="5" t="s">
+      <c r="M40" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="N40" s="4" t="str">
+      <c r="N40" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>02/19/2021</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -3043,22 +3045,22 @@
       <c r="I41" s="1">
         <v>69</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="5">
         <f t="shared" si="0"/>
         <v>43387.199999999997</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41" s="3">
         <v>2</v>
       </c>
-      <c r="L41" s="5" t="s">
+      <c r="L41" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M41" s="5" t="s">
+      <c r="M41" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="N41" s="4" t="str">
+      <c r="N41" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>02/25/2021</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -3089,22 +3091,22 @@
       <c r="I42" s="1">
         <v>215</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="5">
         <f t="shared" si="0"/>
         <v>135192</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K42" s="3">
         <v>2</v>
       </c>
-      <c r="L42" s="5" t="s">
+      <c r="L42" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="M42" s="5" t="s">
+      <c r="M42" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N42" s="4" t="str">
+      <c r="N42" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>02/28/2021</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -3135,22 +3137,22 @@
       <c r="I43" s="1">
         <v>206</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="5">
         <f t="shared" si="0"/>
         <v>129532.79999999999</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43" s="3">
         <v>2</v>
       </c>
-      <c r="L43" s="5" t="s">
+      <c r="L43" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="M43" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="N43" s="4" t="str">
+      <c r="N43" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>02/20/2021</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -3181,22 +3183,22 @@
       <c r="I44" s="1">
         <v>76</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="5">
         <f t="shared" si="0"/>
         <v>47788.799999999996</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K44" s="3">
         <v>2</v>
       </c>
-      <c r="L44" s="5" t="s">
+      <c r="L44" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="M44" s="5" t="s">
+      <c r="M44" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="N44" s="4" t="str">
+      <c r="N44" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>02/21/2021</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -3227,22 +3229,22 @@
       <c r="I45" s="1">
         <v>45</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="5">
         <f t="shared" si="0"/>
         <v>28295.999999999996</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K45" s="3">
         <v>2</v>
       </c>
-      <c r="L45" s="5" t="s">
+      <c r="L45" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="M45" s="5" t="s">
+      <c r="M45" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N45" s="4" t="str">
+      <c r="N45" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>02/19/2021</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -3273,22 +3275,22 @@
       <c r="I46" s="1">
         <v>20</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="5">
         <f t="shared" si="0"/>
         <v>12576</v>
       </c>
-      <c r="K46" s="4">
+      <c r="K46" s="3">
         <v>2</v>
       </c>
-      <c r="L46" s="5" t="s">
+      <c r="L46" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M46" s="5" t="s">
+      <c r="M46" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="N46" s="4" t="str">
+      <c r="N46" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>02/26/2021</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -3319,22 +3321,22 @@
       <c r="I47" s="1">
         <v>60</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="5">
         <f t="shared" si="0"/>
         <v>37728</v>
       </c>
-      <c r="K47" s="4">
+      <c r="K47" s="3">
         <v>2</v>
       </c>
-      <c r="L47" s="5" t="s">
+      <c r="L47" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="M47" s="5" t="s">
+      <c r="M47" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N47" s="4" t="str">
+      <c r="N47" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>02/28/2021</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -3365,22 +3367,22 @@
       <c r="I48" s="1">
         <v>25</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J48" s="5">
         <f t="shared" si="0"/>
         <v>15719.999999999998</v>
       </c>
-      <c r="K48" s="4">
+      <c r="K48" s="3">
         <v>2</v>
       </c>
-      <c r="L48" s="5" t="s">
+      <c r="L48" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M48" s="5" t="s">
+      <c r="M48" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="N48" s="4" t="str">
+      <c r="N48" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>02/26/2021</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -3411,22 +3413,22 @@
       <c r="I49" s="1">
         <v>50</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J49" s="5">
         <f t="shared" si="0"/>
         <v>31439.999999999996</v>
       </c>
-      <c r="K49" s="4">
+      <c r="K49" s="3">
         <v>2</v>
       </c>
-      <c r="L49" s="5" t="s">
+      <c r="L49" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="M49" s="5" t="s">
+      <c r="M49" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="N49" s="4" t="str">
+      <c r="N49" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>jul-2021</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -3457,22 +3459,22 @@
       <c r="I50" s="1">
         <v>150</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J50" s="5">
         <f t="shared" si="0"/>
         <v>94320</v>
       </c>
-      <c r="K50" s="4">
+      <c r="K50" s="3">
         <v>2</v>
       </c>
-      <c r="L50" s="5" t="s">
+      <c r="L50" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M50" s="5" t="s">
+      <c r="M50" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="N50" s="4" t="str">
+      <c r="N50" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>02/26/2021</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -3503,22 +3505,22 @@
       <c r="I51" s="1">
         <v>70</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J51" s="5">
         <f t="shared" si="0"/>
         <v>44016</v>
       </c>
-      <c r="K51" s="4">
+      <c r="K51" s="3">
         <v>2</v>
       </c>
-      <c r="L51" s="5" t="s">
+      <c r="L51" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="M51" s="5" t="s">
+      <c r="M51" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="N51" s="4" t="str">
+      <c r="N51" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>jul-2021</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -3549,22 +3551,22 @@
       <c r="I52" s="1">
         <v>25</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J52" s="5">
         <f t="shared" si="0"/>
         <v>15719.999999999998</v>
       </c>
-      <c r="K52" s="4">
+      <c r="K52" s="3">
         <v>2</v>
       </c>
-      <c r="L52" s="5" t="s">
+      <c r="L52" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M52" s="5" t="s">
+      <c r="M52" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="N52" s="4" t="str">
+      <c r="N52" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>dic-2021</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -3595,22 +3597,22 @@
       <c r="I53" s="1">
         <v>100</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J53" s="5">
         <f t="shared" si="0"/>
         <v>62879.999999999993</v>
       </c>
-      <c r="K53" s="4">
+      <c r="K53" s="3">
         <v>2</v>
       </c>
-      <c r="L53" s="5" t="s">
+      <c r="L53" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="M53" s="5" t="s">
+      <c r="M53" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N53" s="4" t="str">
+      <c r="N53" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>02/27/2021</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -3641,22 +3643,22 @@
       <c r="I54" s="1">
         <v>100</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J54" s="5">
         <f t="shared" si="0"/>
         <v>62879.999999999993</v>
       </c>
-      <c r="K54" s="4">
+      <c r="K54" s="3">
         <v>2</v>
       </c>
-      <c r="L54" s="5" t="s">
+      <c r="L54" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="M54" s="5" t="s">
+      <c r="M54" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="N54" s="4" t="str">
+      <c r="N54" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>02/20/2021</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -3687,22 +3689,22 @@
       <c r="I55" s="1">
         <v>17</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J55" s="5">
         <f t="shared" si="0"/>
         <v>10689.599999999999</v>
       </c>
-      <c r="K55" s="4">
+      <c r="K55" s="3">
         <v>2</v>
       </c>
-      <c r="L55" s="5" t="s">
+      <c r="L55" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M55" s="5" t="s">
+      <c r="M55" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="N55" s="4" t="str">
+      <c r="N55" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>02/26/2021</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -3733,22 +3735,22 @@
       <c r="I56" s="2">
         <v>16960</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J56" s="5">
         <f t="shared" si="0"/>
         <v>10664448</v>
       </c>
-      <c r="K56" s="4">
+      <c r="K56" s="3">
         <v>2</v>
       </c>
-      <c r="L56" s="5" t="s">
+      <c r="L56" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="M56" s="5" t="s">
+      <c r="M56" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N56" s="4" t="str">
+      <c r="N56" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>02/27/2021</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -3779,22 +3781,22 @@
       <c r="I57" s="2">
         <v>2080</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J57" s="5">
         <f t="shared" si="0"/>
         <v>1307904</v>
       </c>
-      <c r="K57" s="4">
+      <c r="K57" s="3">
         <v>2</v>
       </c>
-      <c r="L57" s="5" t="s">
+      <c r="L57" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M57" s="5" t="s">
+      <c r="M57" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N57" s="4" t="str">
+      <c r="N57" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>02/26/2021</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -3825,22 +3827,22 @@
       <c r="I58" s="2">
         <v>60</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J58" s="5">
         <f t="shared" si="0"/>
         <v>37728</v>
       </c>
-      <c r="K58" s="4">
+      <c r="K58" s="3">
         <v>3</v>
       </c>
-      <c r="L58" s="5" t="s">
+      <c r="L58" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="M58" s="5" t="s">
+      <c r="M58" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="N58" s="4" t="str">
+      <c r="N58" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Mar-2021</v>
+        <v>ago-2021</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -3871,22 +3873,22 @@
       <c r="I59" s="1">
         <v>30</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J59" s="5">
         <f t="shared" si="0"/>
         <v>18864</v>
       </c>
-      <c r="K59" s="4">
+      <c r="K59" s="3">
         <v>3</v>
       </c>
-      <c r="L59" s="5" t="s">
+      <c r="L59" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="M59" s="5" t="s">
+      <c r="M59" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="N59" s="4" t="str">
+      <c r="N59" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Mar-2021</v>
+        <v>jun-2021</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -3917,22 +3919,22 @@
       <c r="I60" s="1">
         <v>60</v>
       </c>
-      <c r="J60" s="6">
+      <c r="J60" s="5">
         <f t="shared" si="0"/>
         <v>37728</v>
       </c>
-      <c r="K60" s="4">
+      <c r="K60" s="3">
         <v>3</v>
       </c>
-      <c r="L60" s="5" t="s">
+      <c r="L60" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M60" s="5" t="s">
+      <c r="M60" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="N60" s="4" t="str">
+      <c r="N60" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Mar-2021</v>
+        <v>jul-2021</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -3963,22 +3965,22 @@
       <c r="I61" s="1">
         <v>20</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J61" s="5">
         <f t="shared" si="0"/>
         <v>12576</v>
       </c>
-      <c r="K61" s="4">
+      <c r="K61" s="3">
         <v>3</v>
       </c>
-      <c r="L61" s="5" t="s">
+      <c r="L61" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M61" s="5" t="s">
+      <c r="M61" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="N61" s="4" t="str">
+      <c r="N61" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Mar-2021</v>
+        <v>mar-2021</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -4009,22 +4011,22 @@
       <c r="I62" s="1">
         <v>8</v>
       </c>
-      <c r="J62" s="6">
+      <c r="J62" s="5">
         <f t="shared" si="0"/>
         <v>5030.3999999999996</v>
       </c>
-      <c r="K62" s="4">
+      <c r="K62" s="3">
         <v>3</v>
       </c>
-      <c r="L62" s="5" t="s">
+      <c r="L62" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M62" s="5" t="s">
+      <c r="M62" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="N62" s="4" t="str">
+      <c r="N62" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Mar-2021</v>
+        <v>mar-2021</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -4055,22 +4057,22 @@
       <c r="I63" s="1">
         <v>389</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J63" s="5">
         <f t="shared" si="0"/>
         <v>244603.19999999998</v>
       </c>
-      <c r="K63" s="4">
+      <c r="K63" s="3">
         <v>3</v>
       </c>
-      <c r="L63" s="5" t="s">
+      <c r="L63" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="M63" s="5" t="s">
+      <c r="M63" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="N63" s="4" t="str">
+      <c r="N63" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Mar-2021</v>
+        <v>may-2021</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -4101,22 +4103,22 @@
       <c r="I64" s="1">
         <v>150</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J64" s="5">
         <f t="shared" si="0"/>
         <v>94320</v>
       </c>
-      <c r="K64" s="4">
+      <c r="K64" s="3">
         <v>3</v>
       </c>
-      <c r="L64" s="5" t="s">
+      <c r="L64" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="M64" s="5" t="s">
+      <c r="M64" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="N64" s="4" t="str">
+      <c r="N64" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Mar-2021</v>
+        <v>may-2021</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -4147,22 +4149,22 @@
       <c r="I65" s="1">
         <v>800</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J65" s="5">
         <f t="shared" si="0"/>
         <v>503039.99999999994</v>
       </c>
-      <c r="K65" s="4">
+      <c r="K65" s="3">
         <v>2</v>
       </c>
-      <c r="L65" s="5" t="s">
+      <c r="L65" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="M65" s="5" t="s">
+      <c r="M65" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N65" s="4" t="str">
+      <c r="N65" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Feb-2021</v>
+        <v>02/28/2021</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -4193,22 +4195,22 @@
       <c r="I66" s="1">
         <v>116</v>
       </c>
-      <c r="J66" s="6">
+      <c r="J66" s="5">
         <f t="shared" si="0"/>
         <v>72940.799999999988</v>
       </c>
-      <c r="K66" s="4">
+      <c r="K66" s="3">
         <v>3</v>
       </c>
-      <c r="L66" s="5" t="s">
+      <c r="L66" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M66" s="5" t="s">
+      <c r="M66" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="N66" s="4" t="str">
+      <c r="N66" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Mar-2021</v>
+        <v>mar-2021</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -4239,22 +4241,22 @@
       <c r="I67" s="1">
         <v>300</v>
       </c>
-      <c r="J67" s="6">
+      <c r="J67" s="5">
         <f t="shared" ref="J67:J130" si="2">I67*628.8</f>
         <v>188640</v>
       </c>
-      <c r="K67" s="4">
+      <c r="K67" s="3">
         <v>3</v>
       </c>
-      <c r="L67" s="5" t="s">
+      <c r="L67" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="M67" s="5" t="s">
+      <c r="M67" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="N67" s="4" t="str">
+      <c r="N67" s="3" t="str">
         <f t="shared" ref="N67:N130" si="3" xml:space="preserve"> TEXT(L67, "mmm-yyyy")</f>
-        <v>Mar-2021</v>
+        <v>ene-2021</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -4285,22 +4287,22 @@
       <c r="I68" s="1">
         <v>72</v>
       </c>
-      <c r="J68" s="6">
+      <c r="J68" s="5">
         <f t="shared" si="2"/>
         <v>45273.599999999999</v>
       </c>
-      <c r="K68" s="4">
+      <c r="K68" s="3">
         <v>3</v>
       </c>
-      <c r="L68" s="5" t="s">
+      <c r="L68" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="M68" s="5" t="s">
+      <c r="M68" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="N68" s="4" t="str">
+      <c r="N68" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>may-2021</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -4331,22 +4333,22 @@
       <c r="I69" s="1">
         <v>75</v>
       </c>
-      <c r="J69" s="6">
+      <c r="J69" s="5">
         <f t="shared" si="2"/>
         <v>47160</v>
       </c>
-      <c r="K69" s="4">
+      <c r="K69" s="3">
         <v>3</v>
       </c>
-      <c r="L69" s="5" t="s">
+      <c r="L69" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="M69" s="5" t="s">
+      <c r="M69" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="N69" s="4" t="str">
+      <c r="N69" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>may-2021</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -4377,22 +4379,22 @@
       <c r="I70" s="1">
         <v>10</v>
       </c>
-      <c r="J70" s="6">
+      <c r="J70" s="5">
         <f t="shared" si="2"/>
         <v>6288</v>
       </c>
-      <c r="K70" s="4">
+      <c r="K70" s="3">
         <v>3</v>
       </c>
-      <c r="L70" s="5" t="s">
+      <c r="L70" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="M70" s="5" t="s">
+      <c r="M70" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="N70" s="4" t="str">
+      <c r="N70" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>feb-2021</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -4423,22 +4425,22 @@
       <c r="I71" s="1">
         <v>200</v>
       </c>
-      <c r="J71" s="6">
+      <c r="J71" s="5">
         <f t="shared" si="2"/>
         <v>125759.99999999999</v>
       </c>
-      <c r="K71" s="4">
+      <c r="K71" s="3">
         <v>3</v>
       </c>
-      <c r="L71" s="5" t="s">
+      <c r="L71" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M71" s="5" t="s">
+      <c r="M71" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="N71" s="4" t="str">
+      <c r="N71" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>mar-2021</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -4469,22 +4471,22 @@
       <c r="I72" s="1">
         <v>180</v>
       </c>
-      <c r="J72" s="6">
+      <c r="J72" s="5">
         <f t="shared" si="2"/>
         <v>113183.99999999999</v>
       </c>
-      <c r="K72" s="4">
+      <c r="K72" s="3">
         <v>3</v>
       </c>
-      <c r="L72" s="5" t="s">
+      <c r="L72" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="M72" s="5" t="s">
+      <c r="M72" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="N72" s="4" t="str">
+      <c r="N72" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>abr-2021</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -4515,22 +4517,22 @@
       <c r="I73" s="1">
         <v>100</v>
       </c>
-      <c r="J73" s="6">
+      <c r="J73" s="5">
         <f t="shared" si="2"/>
         <v>62879.999999999993</v>
       </c>
-      <c r="K73" s="4">
+      <c r="K73" s="3">
         <v>3</v>
       </c>
-      <c r="L73" s="5" t="s">
+      <c r="L73" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="M73" s="5" t="s">
+      <c r="M73" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="N73" s="4" t="str">
+      <c r="N73" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>feb-2021</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -4561,22 +4563,22 @@
       <c r="I74" s="1">
         <v>180</v>
       </c>
-      <c r="J74" s="6">
+      <c r="J74" s="5">
         <f t="shared" si="2"/>
         <v>113183.99999999999</v>
       </c>
-      <c r="K74" s="4">
+      <c r="K74" s="3">
         <v>3</v>
       </c>
-      <c r="L74" s="5" t="s">
+      <c r="L74" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="M74" s="5" t="s">
+      <c r="M74" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="N74" s="4" t="str">
+      <c r="N74" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>abr-2021</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -4607,22 +4609,22 @@
       <c r="I75" s="1">
         <v>15</v>
       </c>
-      <c r="J75" s="6">
+      <c r="J75" s="5">
         <f t="shared" si="2"/>
         <v>9432</v>
       </c>
-      <c r="K75" s="4">
+      <c r="K75" s="3">
         <v>3</v>
       </c>
-      <c r="L75" s="5" t="s">
+      <c r="L75" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="M75" s="5" t="s">
+      <c r="M75" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="N75" s="4" t="str">
+      <c r="N75" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>oct-2021</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -4653,22 +4655,22 @@
       <c r="I76" s="1">
         <v>115</v>
       </c>
-      <c r="J76" s="6">
+      <c r="J76" s="5">
         <f t="shared" si="2"/>
         <v>72312</v>
       </c>
-      <c r="K76" s="4">
+      <c r="K76" s="3">
         <v>3</v>
       </c>
-      <c r="L76" s="5" t="s">
+      <c r="L76" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="M76" s="5" t="s">
+      <c r="M76" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="N76" s="4" t="str">
+      <c r="N76" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>sep-2021</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -4699,22 +4701,22 @@
       <c r="I77" s="1">
         <v>200</v>
       </c>
-      <c r="J77" s="6">
+      <c r="J77" s="5">
         <f t="shared" si="2"/>
         <v>125759.99999999999</v>
       </c>
-      <c r="K77" s="4">
+      <c r="K77" s="3">
         <v>3</v>
       </c>
-      <c r="L77" s="5" t="s">
+      <c r="L77" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M77" s="5" t="s">
+      <c r="M77" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="N77" s="4" t="str">
+      <c r="N77" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>mar-2021</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -4745,22 +4747,22 @@
       <c r="I78" s="1">
         <v>115</v>
       </c>
-      <c r="J78" s="6">
+      <c r="J78" s="5">
         <f t="shared" si="2"/>
         <v>72312</v>
       </c>
-      <c r="K78" s="4">
+      <c r="K78" s="3">
         <v>3</v>
       </c>
-      <c r="L78" s="5" t="s">
+      <c r="L78" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="M78" s="5" t="s">
+      <c r="M78" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="N78" s="4" t="str">
+      <c r="N78" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>abr-2021</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -4791,22 +4793,22 @@
       <c r="I79" s="1">
         <v>42</v>
       </c>
-      <c r="J79" s="6">
+      <c r="J79" s="5">
         <f t="shared" si="2"/>
         <v>26409.599999999999</v>
       </c>
-      <c r="K79" s="4">
+      <c r="K79" s="3">
         <v>3</v>
       </c>
-      <c r="L79" s="5" t="s">
+      <c r="L79" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="M79" s="5" t="s">
+      <c r="M79" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="N79" s="4" t="str">
+      <c r="N79" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>ago-2021</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -4837,22 +4839,22 @@
       <c r="I80" s="1">
         <v>16</v>
       </c>
-      <c r="J80" s="6">
+      <c r="J80" s="5">
         <f t="shared" si="2"/>
         <v>10060.799999999999</v>
       </c>
-      <c r="K80" s="4">
+      <c r="K80" s="3">
         <v>3</v>
       </c>
-      <c r="L80" s="5" t="s">
+      <c r="L80" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="M80" s="5" t="s">
+      <c r="M80" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="N80" s="4" t="str">
+      <c r="N80" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>may-2021</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -4883,22 +4885,22 @@
       <c r="I81" s="1">
         <v>35</v>
       </c>
-      <c r="J81" s="6">
+      <c r="J81" s="5">
         <f t="shared" si="2"/>
         <v>22008</v>
       </c>
-      <c r="K81" s="4">
+      <c r="K81" s="3">
         <v>3</v>
       </c>
-      <c r="L81" s="5" t="s">
+      <c r="L81" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="M81" s="5" t="s">
+      <c r="M81" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="N81" s="4" t="str">
+      <c r="N81" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>may-2021</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -4929,22 +4931,22 @@
       <c r="I82" s="1">
         <v>79</v>
       </c>
-      <c r="J82" s="6">
+      <c r="J82" s="5">
         <f t="shared" si="2"/>
         <v>49675.199999999997</v>
       </c>
-      <c r="K82" s="4">
+      <c r="K82" s="3">
         <v>3</v>
       </c>
-      <c r="L82" s="5" t="s">
+      <c r="L82" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="M82" s="5" t="s">
+      <c r="M82" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="N82" s="4" t="str">
+      <c r="N82" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>ene-2021</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -4975,22 +4977,22 @@
       <c r="I83" s="1">
         <v>89</v>
       </c>
-      <c r="J83" s="6">
+      <c r="J83" s="5">
         <f t="shared" si="2"/>
         <v>55963.199999999997</v>
       </c>
-      <c r="K83" s="4">
+      <c r="K83" s="3">
         <v>3</v>
       </c>
-      <c r="L83" s="5" t="s">
+      <c r="L83" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M83" s="5" t="s">
+      <c r="M83" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="N83" s="4" t="str">
+      <c r="N83" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>mar-2021</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -5021,22 +5023,22 @@
       <c r="I84" s="1">
         <v>230</v>
       </c>
-      <c r="J84" s="6">
+      <c r="J84" s="5">
         <f t="shared" si="2"/>
         <v>144624</v>
       </c>
-      <c r="K84" s="4">
+      <c r="K84" s="3">
         <v>3</v>
       </c>
-      <c r="L84" s="5" t="s">
+      <c r="L84" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="M84" s="5" t="s">
+      <c r="M84" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="N84" s="4" t="str">
+      <c r="N84" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>feb-2021</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -5067,22 +5069,22 @@
       <c r="I85" s="1">
         <v>220</v>
       </c>
-      <c r="J85" s="6">
+      <c r="J85" s="5">
         <f t="shared" si="2"/>
         <v>138336</v>
       </c>
-      <c r="K85" s="4">
+      <c r="K85" s="3">
         <v>3</v>
       </c>
-      <c r="L85" s="5" t="s">
+      <c r="L85" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="M85" s="5" t="s">
+      <c r="M85" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="N85" s="4" t="str">
+      <c r="N85" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>abr-2021</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -5113,22 +5115,22 @@
       <c r="I86" s="1">
         <v>70</v>
       </c>
-      <c r="J86" s="6">
+      <c r="J86" s="5">
         <f t="shared" si="2"/>
         <v>44016</v>
       </c>
-      <c r="K86" s="4">
+      <c r="K86" s="3">
         <v>3</v>
       </c>
-      <c r="L86" s="5" t="s">
+      <c r="L86" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="M86" s="5" t="s">
+      <c r="M86" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="N86" s="4" t="str">
+      <c r="N86" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>03/16/2021</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -5159,22 +5161,22 @@
       <c r="I87" s="1">
         <v>10</v>
       </c>
-      <c r="J87" s="6">
+      <c r="J87" s="5">
         <f t="shared" si="2"/>
         <v>6288</v>
       </c>
-      <c r="K87" s="4">
+      <c r="K87" s="3">
         <v>3</v>
       </c>
-      <c r="L87" s="5" t="s">
+      <c r="L87" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="M87" s="5" t="s">
+      <c r="M87" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="N87" s="4" t="str">
+      <c r="N87" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>03/16/2021</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -5205,22 +5207,22 @@
       <c r="I88" s="1">
         <v>1000</v>
       </c>
-      <c r="J88" s="6">
+      <c r="J88" s="5">
         <f t="shared" si="2"/>
         <v>628800</v>
       </c>
-      <c r="K88" s="4">
+      <c r="K88" s="3">
         <v>3</v>
       </c>
-      <c r="L88" s="5" t="s">
+      <c r="L88" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="M88" s="5" t="s">
+      <c r="M88" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="N88" s="4" t="str">
+      <c r="N88" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>03/16/2021</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -5251,22 +5253,22 @@
       <c r="I89" s="1">
         <v>1200</v>
       </c>
-      <c r="J89" s="6">
+      <c r="J89" s="5">
         <f t="shared" si="2"/>
         <v>754560</v>
       </c>
-      <c r="K89" s="4">
+      <c r="K89" s="3">
         <v>3</v>
       </c>
-      <c r="L89" s="5" t="s">
+      <c r="L89" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="M89" s="5" t="s">
+      <c r="M89" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="N89" s="4" t="str">
+      <c r="N89" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>03/16/2021</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -5297,22 +5299,22 @@
       <c r="I90" s="1">
         <v>120</v>
       </c>
-      <c r="J90" s="6">
+      <c r="J90" s="5">
         <f t="shared" si="2"/>
         <v>75456</v>
       </c>
-      <c r="K90" s="4">
+      <c r="K90" s="3">
         <v>3</v>
       </c>
-      <c r="L90" s="5" t="s">
+      <c r="L90" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="M90" s="5" t="s">
+      <c r="M90" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="N90" s="4" t="str">
+      <c r="N90" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>03/16/2021</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -5343,22 +5345,22 @@
       <c r="I91" s="1">
         <v>100</v>
       </c>
-      <c r="J91" s="6">
+      <c r="J91" s="5">
         <f t="shared" si="2"/>
         <v>62879.999999999993</v>
       </c>
-      <c r="K91" s="4">
+      <c r="K91" s="3">
         <v>3</v>
       </c>
-      <c r="L91" s="5" t="s">
+      <c r="L91" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="M91" s="5" t="s">
+      <c r="M91" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="N91" s="4" t="str">
+      <c r="N91" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>03/16/2021</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -5389,22 +5391,22 @@
       <c r="I92" s="1">
         <v>100</v>
       </c>
-      <c r="J92" s="6">
+      <c r="J92" s="5">
         <f t="shared" si="2"/>
         <v>62879.999999999993</v>
       </c>
-      <c r="K92" s="4">
+      <c r="K92" s="3">
         <v>3</v>
       </c>
-      <c r="L92" s="5" t="s">
+      <c r="L92" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="M92" s="5" t="s">
+      <c r="M92" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="N92" s="4" t="str">
+      <c r="N92" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>03/20/2021</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -5435,22 +5437,22 @@
       <c r="I93" s="1">
         <v>25</v>
       </c>
-      <c r="J93" s="6">
+      <c r="J93" s="5">
         <f t="shared" si="2"/>
         <v>15719.999999999998</v>
       </c>
-      <c r="K93" s="4">
+      <c r="K93" s="3">
         <v>3</v>
       </c>
-      <c r="L93" s="5" t="s">
+      <c r="L93" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="M93" s="5" t="s">
+      <c r="M93" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="N93" s="4" t="str">
+      <c r="N93" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>03/21/2021</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -5481,22 +5483,22 @@
       <c r="I94" s="1">
         <v>50</v>
       </c>
-      <c r="J94" s="6">
+      <c r="J94" s="5">
         <f t="shared" si="2"/>
         <v>31439.999999999996</v>
       </c>
-      <c r="K94" s="4">
+      <c r="K94" s="3">
         <v>3</v>
       </c>
-      <c r="L94" s="5" t="s">
+      <c r="L94" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="M94" s="5" t="s">
+      <c r="M94" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="N94" s="4" t="str">
+      <c r="N94" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>feb-2021</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -5527,22 +5529,22 @@
       <c r="I95" s="1">
         <v>80</v>
       </c>
-      <c r="J95" s="6">
+      <c r="J95" s="5">
         <f t="shared" si="2"/>
         <v>50304</v>
       </c>
-      <c r="K95" s="4">
+      <c r="K95" s="3">
         <v>3</v>
       </c>
-      <c r="L95" s="5" t="s">
+      <c r="L95" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="M95" s="5" t="s">
+      <c r="M95" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="N95" s="4" t="str">
+      <c r="N95" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>feb-2021</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -5573,22 +5575,22 @@
       <c r="I96" s="1">
         <v>65</v>
       </c>
-      <c r="J96" s="6">
+      <c r="J96" s="5">
         <f t="shared" si="2"/>
         <v>40872</v>
       </c>
-      <c r="K96" s="4">
+      <c r="K96" s="3">
         <v>3</v>
       </c>
-      <c r="L96" s="5" t="s">
+      <c r="L96" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="M96" s="5" t="s">
+      <c r="M96" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="N96" s="4" t="str">
+      <c r="N96" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>03/19/2021</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -5619,22 +5621,22 @@
       <c r="I97" s="1">
         <v>40</v>
       </c>
-      <c r="J97" s="6">
+      <c r="J97" s="5">
         <f t="shared" si="2"/>
         <v>25152</v>
       </c>
-      <c r="K97" s="4">
+      <c r="K97" s="3">
         <v>3</v>
       </c>
-      <c r="L97" s="5" t="s">
+      <c r="L97" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="M97" s="5" t="s">
+      <c r="M97" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="N97" s="4" t="str">
+      <c r="N97" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>03/20/2021</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -5665,22 +5667,22 @@
       <c r="I98" s="1">
         <v>25</v>
       </c>
-      <c r="J98" s="6">
+      <c r="J98" s="5">
         <f t="shared" si="2"/>
         <v>15719.999999999998</v>
       </c>
-      <c r="K98" s="4">
+      <c r="K98" s="3">
         <v>3</v>
       </c>
-      <c r="L98" s="5" t="s">
+      <c r="L98" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="M98" s="5" t="s">
+      <c r="M98" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="N98" s="4" t="str">
+      <c r="N98" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>03/19/2021</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
@@ -5711,22 +5713,22 @@
       <c r="I99" s="1">
         <v>80</v>
       </c>
-      <c r="J99" s="6">
+      <c r="J99" s="5">
         <f t="shared" si="2"/>
         <v>50304</v>
       </c>
-      <c r="K99" s="4">
+      <c r="K99" s="3">
         <v>3</v>
       </c>
-      <c r="L99" s="5" t="s">
+      <c r="L99" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="M99" s="5" t="s">
+      <c r="M99" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="N99" s="4" t="str">
+      <c r="N99" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>03/21/2021</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -5757,22 +5759,22 @@
       <c r="I100" s="1">
         <v>70</v>
       </c>
-      <c r="J100" s="6">
+      <c r="J100" s="5">
         <f t="shared" si="2"/>
         <v>44016</v>
       </c>
-      <c r="K100" s="4">
+      <c r="K100" s="3">
         <v>3</v>
       </c>
-      <c r="L100" s="5" t="s">
+      <c r="L100" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M100" s="5" t="s">
+      <c r="M100" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="N100" s="4" t="str">
+      <c r="N100" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>03/15/2021</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -5803,22 +5805,22 @@
       <c r="I101" s="1">
         <v>134</v>
       </c>
-      <c r="J101" s="6">
+      <c r="J101" s="5">
         <f t="shared" si="2"/>
         <v>84259.199999999997</v>
       </c>
-      <c r="K101" s="4">
+      <c r="K101" s="3">
         <v>3</v>
       </c>
-      <c r="L101" s="5" t="s">
+      <c r="L101" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M101" s="5" t="s">
+      <c r="M101" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="N101" s="4" t="str">
+      <c r="N101" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>03/26/2021</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
@@ -5849,22 +5851,22 @@
       <c r="I102" s="1">
         <v>200</v>
       </c>
-      <c r="J102" s="6">
+      <c r="J102" s="5">
         <f t="shared" si="2"/>
         <v>125759.99999999999</v>
       </c>
-      <c r="K102" s="4">
+      <c r="K102" s="3">
         <v>3</v>
       </c>
-      <c r="L102" s="5" t="s">
+      <c r="L102" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M102" s="5" t="s">
+      <c r="M102" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="N102" s="4" t="str">
+      <c r="N102" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>03/26/2021</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -5895,22 +5897,22 @@
       <c r="I103" s="1">
         <v>80</v>
       </c>
-      <c r="J103" s="6">
+      <c r="J103" s="5">
         <f t="shared" si="2"/>
         <v>50304</v>
       </c>
-      <c r="K103" s="4">
+      <c r="K103" s="3">
         <v>3</v>
       </c>
-      <c r="L103" s="5" t="s">
+      <c r="L103" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M103" s="5" t="s">
+      <c r="M103" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="N103" s="4" t="str">
+      <c r="N103" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>03/29/2021</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -5941,22 +5943,22 @@
       <c r="I104" s="1">
         <v>100</v>
       </c>
-      <c r="J104" s="6">
+      <c r="J104" s="5">
         <f t="shared" si="2"/>
         <v>62879.999999999993</v>
       </c>
-      <c r="K104" s="4">
+      <c r="K104" s="3">
         <v>3</v>
       </c>
-      <c r="L104" s="5" t="s">
+      <c r="L104" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="M104" s="5" t="s">
+      <c r="M104" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="N104" s="4" t="str">
+      <c r="N104" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>03/28/2021</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -5987,22 +5989,22 @@
       <c r="I105" s="1">
         <v>50</v>
       </c>
-      <c r="J105" s="6">
+      <c r="J105" s="5">
         <f t="shared" si="2"/>
         <v>31439.999999999996</v>
       </c>
-      <c r="K105" s="4">
+      <c r="K105" s="3">
         <v>3</v>
       </c>
-      <c r="L105" s="5" t="s">
+      <c r="L105" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M105" s="5" t="s">
+      <c r="M105" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="N105" s="4" t="str">
+      <c r="N105" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>03/29/2021</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -6033,22 +6035,22 @@
       <c r="I106" s="1">
         <v>55</v>
       </c>
-      <c r="J106" s="6">
+      <c r="J106" s="5">
         <f t="shared" si="2"/>
         <v>34584</v>
       </c>
-      <c r="K106" s="4">
+      <c r="K106" s="3">
         <v>3</v>
       </c>
-      <c r="L106" s="5" t="s">
+      <c r="L106" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="M106" s="5" t="s">
+      <c r="M106" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="N106" s="4" t="str">
+      <c r="N106" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>03/28/2021</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -6079,22 +6081,22 @@
       <c r="I107" s="1">
         <v>160</v>
       </c>
-      <c r="J107" s="6">
+      <c r="J107" s="5">
         <f t="shared" si="2"/>
         <v>100608</v>
       </c>
-      <c r="K107" s="4">
+      <c r="K107" s="3">
         <v>3</v>
       </c>
-      <c r="L107" s="5" t="s">
+      <c r="L107" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M107" s="5" t="s">
+      <c r="M107" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="N107" s="4" t="str">
+      <c r="N107" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>03/26/2021</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
@@ -6125,22 +6127,22 @@
       <c r="I108" s="1">
         <v>16</v>
       </c>
-      <c r="J108" s="6">
+      <c r="J108" s="5">
         <f t="shared" si="2"/>
         <v>10060.799999999999</v>
       </c>
-      <c r="K108" s="4">
+      <c r="K108" s="3">
         <v>3</v>
       </c>
-      <c r="L108" s="5" t="s">
+      <c r="L108" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="M108" s="5" t="s">
+      <c r="M108" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="N108" s="4" t="str">
+      <c r="N108" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>03/31/2021</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -6171,22 +6173,22 @@
       <c r="I109" s="1">
         <v>45</v>
       </c>
-      <c r="J109" s="6">
+      <c r="J109" s="5">
         <f t="shared" si="2"/>
         <v>28295.999999999996</v>
       </c>
-      <c r="K109" s="4">
+      <c r="K109" s="3">
         <v>4</v>
       </c>
-      <c r="L109" s="5" t="s">
+      <c r="L109" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="M109" s="5" t="s">
+      <c r="M109" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="N109" s="4" t="str">
+      <c r="N109" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Apr-2021</v>
+        <v>mar-2021</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -6217,22 +6219,22 @@
       <c r="I110" s="1">
         <v>1600</v>
       </c>
-      <c r="J110" s="6">
+      <c r="J110" s="5">
         <f t="shared" si="2"/>
         <v>1006079.9999999999</v>
       </c>
-      <c r="K110" s="4">
+      <c r="K110" s="3">
         <v>3</v>
       </c>
-      <c r="L110" s="5" t="s">
+      <c r="L110" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="M110" s="5" t="s">
+      <c r="M110" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="N110" s="4" t="str">
+      <c r="N110" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mar-2021</v>
+        <v>03/30/2021</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -6263,22 +6265,22 @@
       <c r="I111" s="1">
         <v>117</v>
       </c>
-      <c r="J111" s="6">
+      <c r="J111" s="5">
         <f t="shared" si="2"/>
         <v>73569.599999999991</v>
       </c>
-      <c r="K111" s="4">
+      <c r="K111" s="3">
         <v>4</v>
       </c>
-      <c r="L111" s="5" t="s">
+      <c r="L111" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="M111" s="5" t="s">
+      <c r="M111" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="N111" s="4" t="str">
+      <c r="N111" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Apr-2021</v>
+        <v>ene-2021</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -6309,22 +6311,22 @@
       <c r="I112" s="1">
         <v>25</v>
       </c>
-      <c r="J112" s="6">
+      <c r="J112" s="5">
         <f t="shared" si="2"/>
         <v>15719.999999999998</v>
       </c>
-      <c r="K112" s="4">
+      <c r="K112" s="3">
         <v>4</v>
       </c>
-      <c r="L112" s="5" t="s">
+      <c r="L112" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="M112" s="5" t="s">
+      <c r="M112" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="N112" s="4" t="str">
+      <c r="N112" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Apr-2021</v>
+        <v>04/18/2021</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -6355,22 +6357,22 @@
       <c r="I113" s="1">
         <v>20</v>
       </c>
-      <c r="J113" s="6">
+      <c r="J113" s="5">
         <f t="shared" si="2"/>
         <v>12576</v>
       </c>
-      <c r="K113" s="4">
+      <c r="K113" s="3">
         <v>4</v>
       </c>
-      <c r="L113" s="5" t="s">
+      <c r="L113" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="M113" s="5" t="s">
+      <c r="M113" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="N113" s="4" t="str">
+      <c r="N113" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Apr-2021</v>
+        <v>04/18/2021</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -6401,22 +6403,22 @@
       <c r="I114" s="1">
         <v>15</v>
       </c>
-      <c r="J114" s="6">
+      <c r="J114" s="5">
         <f t="shared" si="2"/>
         <v>9432</v>
       </c>
-      <c r="K114" s="4">
+      <c r="K114" s="3">
         <v>4</v>
       </c>
-      <c r="L114" s="5" t="s">
+      <c r="L114" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="M114" s="5" t="s">
+      <c r="M114" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="N114" s="4" t="str">
+      <c r="N114" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Apr-2021</v>
+        <v>04/18/2021</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -6447,22 +6449,22 @@
       <c r="I115" s="1">
         <v>12</v>
       </c>
-      <c r="J115" s="6">
+      <c r="J115" s="5">
         <f t="shared" si="2"/>
         <v>7545.5999999999995</v>
       </c>
-      <c r="K115" s="4">
+      <c r="K115" s="3">
         <v>4</v>
       </c>
-      <c r="L115" s="5" t="s">
+      <c r="L115" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="M115" s="5" t="s">
+      <c r="M115" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="N115" s="4" t="str">
+      <c r="N115" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Apr-2021</v>
+        <v>04/15/2021</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -6493,22 +6495,22 @@
       <c r="I116" s="1">
         <v>76</v>
       </c>
-      <c r="J116" s="6">
+      <c r="J116" s="5">
         <f t="shared" si="2"/>
         <v>47788.799999999996</v>
       </c>
-      <c r="K116" s="4">
+      <c r="K116" s="3">
         <v>4</v>
       </c>
-      <c r="L116" s="5" t="s">
+      <c r="L116" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="M116" s="5" t="s">
+      <c r="M116" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="N116" s="4" t="str">
+      <c r="N116" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Apr-2021</v>
+        <v>04/24/2021</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -6539,22 +6541,22 @@
       <c r="I117" s="1">
         <v>120</v>
       </c>
-      <c r="J117" s="6">
+      <c r="J117" s="5">
         <f t="shared" si="2"/>
         <v>75456</v>
       </c>
-      <c r="K117" s="4">
+      <c r="K117" s="3">
         <v>4</v>
       </c>
-      <c r="L117" s="5" t="s">
+      <c r="L117" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="M117" s="5" t="s">
+      <c r="M117" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="N117" s="4" t="str">
+      <c r="N117" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Apr-2021</v>
+        <v>04/24/2021</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -6585,22 +6587,22 @@
       <c r="I118" s="1">
         <v>390</v>
       </c>
-      <c r="J118" s="6">
+      <c r="J118" s="5">
         <f t="shared" si="2"/>
         <v>245231.99999999997</v>
       </c>
-      <c r="K118" s="4">
+      <c r="K118" s="3">
         <v>4</v>
       </c>
-      <c r="L118" s="5" t="s">
+      <c r="L118" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="M118" s="5" t="s">
+      <c r="M118" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="N118" s="4" t="str">
+      <c r="N118" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Apr-2021</v>
+        <v>04/24/2021</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -6631,22 +6633,22 @@
       <c r="I119" s="1">
         <v>1466</v>
       </c>
-      <c r="J119" s="6">
+      <c r="J119" s="5">
         <f t="shared" si="2"/>
         <v>921820.79999999993</v>
       </c>
-      <c r="K119" s="4">
+      <c r="K119" s="3">
         <v>4</v>
       </c>
-      <c r="L119" s="5" t="s">
+      <c r="L119" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="M119" s="5" t="s">
+      <c r="M119" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="N119" s="4" t="str">
+      <c r="N119" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Apr-2021</v>
+        <v>04/21/2021</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -6677,22 +6679,22 @@
       <c r="I120" s="1">
         <v>30</v>
       </c>
-      <c r="J120" s="6">
+      <c r="J120" s="5">
         <f t="shared" si="2"/>
         <v>18864</v>
       </c>
-      <c r="K120" s="4">
+      <c r="K120" s="3">
         <v>4</v>
       </c>
-      <c r="L120" s="5" t="s">
+      <c r="L120" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="M120" s="5" t="s">
+      <c r="M120" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="N120" s="4" t="str">
+      <c r="N120" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Apr-2021</v>
+        <v>04/21/2021</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -6723,22 +6725,22 @@
       <c r="I121" s="1">
         <v>40</v>
       </c>
-      <c r="J121" s="6">
+      <c r="J121" s="5">
         <f t="shared" si="2"/>
         <v>25152</v>
       </c>
-      <c r="K121" s="4">
+      <c r="K121" s="3">
         <v>4</v>
       </c>
-      <c r="L121" s="5" t="s">
+      <c r="L121" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="M121" s="5" t="s">
+      <c r="M121" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="N121" s="4" t="str">
+      <c r="N121" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Apr-2021</v>
+        <v>04/22/2021</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -6769,22 +6771,22 @@
       <c r="I122" s="1">
         <v>150</v>
       </c>
-      <c r="J122" s="6">
+      <c r="J122" s="5">
         <f t="shared" si="2"/>
         <v>94320</v>
       </c>
-      <c r="K122" s="4">
+      <c r="K122" s="3">
         <v>4</v>
       </c>
-      <c r="L122" s="5" t="s">
+      <c r="L122" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="M122" s="5" t="s">
+      <c r="M122" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="N122" s="4" t="str">
+      <c r="N122" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Apr-2021</v>
+        <v>04/20/2021</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -6815,22 +6817,22 @@
       <c r="I123" s="1">
         <v>200</v>
       </c>
-      <c r="J123" s="6">
+      <c r="J123" s="5">
         <f t="shared" si="2"/>
         <v>125759.99999999999</v>
       </c>
-      <c r="K123" s="4">
+      <c r="K123" s="3">
         <v>4</v>
       </c>
-      <c r="L123" s="5" t="s">
+      <c r="L123" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="M123" s="5" t="s">
+      <c r="M123" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="N123" s="4" t="str">
+      <c r="N123" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Apr-2021</v>
+        <v>sep-2021</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -6861,22 +6863,22 @@
       <c r="I124" s="1">
         <v>400</v>
       </c>
-      <c r="J124" s="6">
+      <c r="J124" s="5">
         <f t="shared" si="2"/>
         <v>251519.99999999997</v>
       </c>
-      <c r="K124" s="4">
+      <c r="K124" s="3">
         <v>4</v>
       </c>
-      <c r="L124" s="5" t="s">
+      <c r="L124" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="M124" s="5" t="s">
+      <c r="M124" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="N124" s="4" t="str">
+      <c r="N124" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Apr-2021</v>
+        <v>04/13/2021</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -6907,22 +6909,22 @@
       <c r="I125" s="1">
         <v>12</v>
       </c>
-      <c r="J125" s="6">
+      <c r="J125" s="5">
         <f t="shared" si="2"/>
         <v>7545.5999999999995</v>
       </c>
-      <c r="K125" s="4">
+      <c r="K125" s="3">
         <v>4</v>
       </c>
-      <c r="L125" s="5" t="s">
+      <c r="L125" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="M125" s="5" t="s">
+      <c r="M125" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="N125" s="4" t="str">
+      <c r="N125" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Apr-2021</v>
+        <v>04/18/2021</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
@@ -6953,22 +6955,22 @@
       <c r="I126" s="1">
         <v>25</v>
       </c>
-      <c r="J126" s="6">
+      <c r="J126" s="5">
         <f t="shared" si="2"/>
         <v>15719.999999999998</v>
       </c>
-      <c r="K126" s="4">
+      <c r="K126" s="3">
         <v>4</v>
       </c>
-      <c r="L126" s="5" t="s">
+      <c r="L126" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="M126" s="5" t="s">
+      <c r="M126" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="N126" s="4" t="str">
+      <c r="N126" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Apr-2021</v>
+        <v>04/15/2021</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
@@ -6999,22 +7001,22 @@
       <c r="I127" s="1">
         <v>350</v>
       </c>
-      <c r="J127" s="6">
+      <c r="J127" s="5">
         <f t="shared" si="2"/>
         <v>220079.99999999997</v>
       </c>
-      <c r="K127" s="4">
+      <c r="K127" s="3">
         <v>4</v>
       </c>
-      <c r="L127" s="5" t="s">
+      <c r="L127" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="M127" s="5" t="s">
+      <c r="M127" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="N127" s="4" t="str">
+      <c r="N127" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Apr-2021</v>
+        <v>04/15/2021</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
@@ -7045,22 +7047,22 @@
       <c r="I128" s="1">
         <v>53</v>
       </c>
-      <c r="J128" s="6">
+      <c r="J128" s="5">
         <f t="shared" si="2"/>
         <v>33326.399999999994</v>
       </c>
-      <c r="K128" s="4">
+      <c r="K128" s="3">
         <v>4</v>
       </c>
-      <c r="L128" s="5" t="s">
+      <c r="L128" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="M128" s="5" t="s">
+      <c r="M128" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="N128" s="4" t="str">
+      <c r="N128" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Apr-2021</v>
+        <v>04/24/2021</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -7091,22 +7093,22 @@
       <c r="I129" s="1">
         <v>116</v>
       </c>
-      <c r="J129" s="6">
+      <c r="J129" s="5">
         <f t="shared" si="2"/>
         <v>72940.799999999988</v>
       </c>
-      <c r="K129" s="4">
+      <c r="K129" s="3">
         <v>4</v>
       </c>
-      <c r="L129" s="5" t="s">
+      <c r="L129" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="M129" s="5" t="s">
+      <c r="M129" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="N129" s="4" t="str">
+      <c r="N129" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Apr-2021</v>
+        <v>ene-2021</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
@@ -7137,22 +7139,22 @@
       <c r="I130" s="1">
         <v>25</v>
       </c>
-      <c r="J130" s="6">
+      <c r="J130" s="5">
         <f t="shared" si="2"/>
         <v>15719.999999999998</v>
       </c>
-      <c r="K130" s="4">
+      <c r="K130" s="3">
         <v>4</v>
       </c>
-      <c r="L130" s="5" t="s">
+      <c r="L130" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="M130" s="5" t="s">
+      <c r="M130" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N130" s="4" t="str">
+      <c r="N130" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Apr-2021</v>
+        <v>04/24/2021</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -7183,22 +7185,22 @@
       <c r="I131" s="1">
         <v>250</v>
       </c>
-      <c r="J131" s="6">
+      <c r="J131" s="5">
         <f t="shared" ref="J131:J194" si="4">I131*628.8</f>
         <v>157200</v>
       </c>
-      <c r="K131" s="4">
+      <c r="K131" s="3">
         <v>4</v>
       </c>
-      <c r="L131" s="5" t="s">
+      <c r="L131" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="M131" s="5" t="s">
+      <c r="M131" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N131" s="4" t="str">
+      <c r="N131" s="3" t="str">
         <f t="shared" ref="N131:N194" si="5" xml:space="preserve"> TEXT(L131, "mmm-yyyy")</f>
-        <v>Apr-2021</v>
+        <v>04/23/2021</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
@@ -7229,22 +7231,22 @@
       <c r="I132" s="1">
         <v>120</v>
       </c>
-      <c r="J132" s="6">
+      <c r="J132" s="5">
         <f t="shared" si="4"/>
         <v>75456</v>
       </c>
-      <c r="K132" s="4">
+      <c r="K132" s="3">
         <v>4</v>
       </c>
-      <c r="L132" s="5" t="s">
+      <c r="L132" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="M132" s="5" t="s">
+      <c r="M132" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="N132" s="4" t="str">
+      <c r="N132" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Apr-2021</v>
+        <v>04/21/2021</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
@@ -7275,22 +7277,22 @@
       <c r="I133" s="1">
         <v>150</v>
       </c>
-      <c r="J133" s="6">
+      <c r="J133" s="5">
         <f t="shared" si="4"/>
         <v>94320</v>
       </c>
-      <c r="K133" s="4">
+      <c r="K133" s="3">
         <v>4</v>
       </c>
-      <c r="L133" s="5" t="s">
+      <c r="L133" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="M133" s="5" t="s">
+      <c r="M133" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="N133" s="4" t="str">
+      <c r="N133" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Apr-2021</v>
+        <v>04/19/2021</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
@@ -7321,22 +7323,22 @@
       <c r="I134" s="1">
         <v>150</v>
       </c>
-      <c r="J134" s="6">
+      <c r="J134" s="5">
         <f t="shared" si="4"/>
         <v>94320</v>
       </c>
-      <c r="K134" s="4">
+      <c r="K134" s="3">
         <v>4</v>
       </c>
-      <c r="L134" s="5" t="s">
+      <c r="L134" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="M134" s="5" t="s">
+      <c r="M134" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="N134" s="4" t="str">
+      <c r="N134" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Apr-2021</v>
+        <v>04/17/2021</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
@@ -7367,22 +7369,22 @@
       <c r="I135" s="1">
         <v>115</v>
       </c>
-      <c r="J135" s="6">
+      <c r="J135" s="5">
         <f t="shared" si="4"/>
         <v>72312</v>
       </c>
-      <c r="K135" s="4">
+      <c r="K135" s="3">
         <v>4</v>
       </c>
-      <c r="L135" s="5" t="s">
+      <c r="L135" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="M135" s="5" t="s">
+      <c r="M135" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="N135" s="4" t="str">
+      <c r="N135" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Apr-2021</v>
+        <v>nov-2021</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
@@ -7413,22 +7415,22 @@
       <c r="I136" s="1">
         <v>45</v>
       </c>
-      <c r="J136" s="6">
+      <c r="J136" s="5">
         <f t="shared" si="4"/>
         <v>28295.999999999996</v>
       </c>
-      <c r="K136" s="4">
+      <c r="K136" s="3">
         <v>4</v>
       </c>
-      <c r="L136" s="5" t="s">
+      <c r="L136" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="M136" s="5" t="s">
+      <c r="M136" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="N136" s="4" t="str">
+      <c r="N136" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Apr-2021</v>
+        <v>04/19/2021</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
@@ -7459,22 +7461,22 @@
       <c r="I137" s="1">
         <v>200</v>
       </c>
-      <c r="J137" s="6">
+      <c r="J137" s="5">
         <f t="shared" si="4"/>
         <v>125759.99999999999</v>
       </c>
-      <c r="K137" s="4">
+      <c r="K137" s="3">
         <v>4</v>
       </c>
-      <c r="L137" s="5" t="s">
+      <c r="L137" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="M137" s="5" t="s">
+      <c r="M137" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="N137" s="4" t="str">
+      <c r="N137" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Apr-2021</v>
+        <v>04/21/2021</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
@@ -7505,22 +7507,22 @@
       <c r="I138" s="1">
         <v>30</v>
       </c>
-      <c r="J138" s="6">
+      <c r="J138" s="5">
         <f t="shared" si="4"/>
         <v>18864</v>
       </c>
-      <c r="K138" s="4">
+      <c r="K138" s="3">
         <v>4</v>
       </c>
-      <c r="L138" s="5" t="s">
+      <c r="L138" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="M138" s="5" t="s">
+      <c r="M138" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="N138" s="4" t="str">
+      <c r="N138" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Apr-2021</v>
+        <v>oct-2021</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
@@ -7551,22 +7553,22 @@
       <c r="I139" s="1">
         <v>300</v>
       </c>
-      <c r="J139" s="6">
+      <c r="J139" s="5">
         <f t="shared" si="4"/>
         <v>188640</v>
       </c>
-      <c r="K139" s="4">
+      <c r="K139" s="3">
         <v>4</v>
       </c>
-      <c r="L139" s="5" t="s">
+      <c r="L139" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="M139" s="5" t="s">
+      <c r="M139" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="N139" s="4" t="str">
+      <c r="N139" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Apr-2021</v>
+        <v>04/13/2021</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
@@ -7597,22 +7599,22 @@
       <c r="I140" s="1">
         <v>70</v>
       </c>
-      <c r="J140" s="6">
+      <c r="J140" s="5">
         <f t="shared" si="4"/>
         <v>44016</v>
       </c>
-      <c r="K140" s="4">
+      <c r="K140" s="3">
         <v>4</v>
       </c>
-      <c r="L140" s="5" t="s">
+      <c r="L140" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="M140" s="5" t="s">
+      <c r="M140" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N140" s="4" t="str">
+      <c r="N140" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Apr-2021</v>
+        <v>04/24/2021</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
@@ -7643,22 +7645,22 @@
       <c r="I141" s="1">
         <v>40</v>
       </c>
-      <c r="J141" s="6">
+      <c r="J141" s="5">
         <f t="shared" si="4"/>
         <v>25152</v>
       </c>
-      <c r="K141" s="4">
+      <c r="K141" s="3">
         <v>4</v>
       </c>
-      <c r="L141" s="5" t="s">
+      <c r="L141" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="M141" s="5" t="s">
+      <c r="M141" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="N141" s="4" t="str">
+      <c r="N141" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Apr-2021</v>
+        <v>04/25/2021</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
@@ -7689,22 +7691,22 @@
       <c r="I142" s="1">
         <v>20</v>
       </c>
-      <c r="J142" s="6">
+      <c r="J142" s="5">
         <f t="shared" si="4"/>
         <v>12576</v>
       </c>
-      <c r="K142" s="4">
+      <c r="K142" s="3">
         <v>4</v>
       </c>
-      <c r="L142" s="5" t="s">
+      <c r="L142" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="M142" s="5" t="s">
+      <c r="M142" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="N142" s="4" t="str">
+      <c r="N142" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Apr-2021</v>
+        <v>04/26/2021</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
@@ -7735,22 +7737,22 @@
       <c r="I143" s="1">
         <v>5</v>
       </c>
-      <c r="J143" s="6">
+      <c r="J143" s="5">
         <f t="shared" si="4"/>
         <v>3144</v>
       </c>
-      <c r="K143" s="4">
+      <c r="K143" s="3">
         <v>4</v>
       </c>
-      <c r="L143" s="5" t="s">
+      <c r="L143" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="M143" s="5" t="s">
+      <c r="M143" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="N143" s="4" t="str">
+      <c r="N143" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Apr-2021</v>
+        <v>dic-2021</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
@@ -7781,22 +7783,22 @@
       <c r="I144" s="1">
         <v>20</v>
       </c>
-      <c r="J144" s="6">
+      <c r="J144" s="5">
         <f t="shared" si="4"/>
         <v>12576</v>
       </c>
-      <c r="K144" s="4">
+      <c r="K144" s="3">
         <v>4</v>
       </c>
-      <c r="L144" s="5" t="s">
+      <c r="L144" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="M144" s="5" t="s">
+      <c r="M144" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="N144" s="4" t="str">
+      <c r="N144" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Apr-2021</v>
+        <v>04/20/2021</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
@@ -7827,22 +7829,22 @@
       <c r="I145" s="1">
         <v>60</v>
       </c>
-      <c r="J145" s="6">
+      <c r="J145" s="5">
         <f t="shared" si="4"/>
         <v>37728</v>
       </c>
-      <c r="K145" s="4">
+      <c r="K145" s="3">
         <v>4</v>
       </c>
-      <c r="L145" s="5" t="s">
+      <c r="L145" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="M145" s="5" t="s">
+      <c r="M145" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="N145" s="4" t="str">
+      <c r="N145" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Apr-2021</v>
+        <v>feb-2021</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
@@ -7873,22 +7875,22 @@
       <c r="I146" s="1">
         <v>124</v>
       </c>
-      <c r="J146" s="6">
+      <c r="J146" s="5">
         <f t="shared" si="4"/>
         <v>77971.199999999997</v>
       </c>
-      <c r="K146" s="4">
+      <c r="K146" s="3">
         <v>5</v>
       </c>
-      <c r="L146" s="5" t="s">
+      <c r="L146" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="M146" s="5" t="s">
+      <c r="M146" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="N146" s="4" t="str">
+      <c r="N146" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>May-2021</v>
+        <v>jun-2021</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
@@ -7919,22 +7921,22 @@
       <c r="I147" s="1">
         <v>17</v>
       </c>
-      <c r="J147" s="6">
+      <c r="J147" s="5">
         <f t="shared" si="4"/>
         <v>10689.599999999999</v>
       </c>
-      <c r="K147" s="4">
+      <c r="K147" s="3">
         <v>5</v>
       </c>
-      <c r="L147" s="5" t="s">
+      <c r="L147" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="M147" s="5" t="s">
+      <c r="M147" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="N147" s="4" t="str">
+      <c r="N147" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>May-2021</v>
+        <v>jul-2021</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
@@ -7965,22 +7967,22 @@
       <c r="I148" s="1">
         <v>125</v>
       </c>
-      <c r="J148" s="6">
+      <c r="J148" s="5">
         <f t="shared" si="4"/>
         <v>78600</v>
       </c>
-      <c r="K148" s="4">
+      <c r="K148" s="3">
         <v>5</v>
       </c>
-      <c r="L148" s="5" t="s">
+      <c r="L148" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="M148" s="5" t="s">
+      <c r="M148" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="N148" s="4" t="str">
+      <c r="N148" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>May-2021</v>
+        <v>may-2021</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
@@ -8011,22 +8013,22 @@
       <c r="I149" s="1">
         <v>90</v>
       </c>
-      <c r="J149" s="6">
+      <c r="J149" s="5">
         <f t="shared" si="4"/>
         <v>56591.999999999993</v>
       </c>
-      <c r="K149" s="4">
+      <c r="K149" s="3">
         <v>5</v>
       </c>
-      <c r="L149" s="5" t="s">
+      <c r="L149" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="M149" s="5" t="s">
+      <c r="M149" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="N149" s="4" t="str">
+      <c r="N149" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>May-2021</v>
+        <v>ago-2021</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
@@ -8057,22 +8059,22 @@
       <c r="I150" s="1">
         <v>10</v>
       </c>
-      <c r="J150" s="6">
+      <c r="J150" s="5">
         <f t="shared" si="4"/>
         <v>6288</v>
       </c>
-      <c r="K150" s="4">
+      <c r="K150" s="3">
         <v>5</v>
       </c>
-      <c r="L150" s="5" t="s">
+      <c r="L150" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="M150" s="5" t="s">
+      <c r="M150" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="N150" s="4" t="str">
+      <c r="N150" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>May-2021</v>
+        <v>oct-2021</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
@@ -8103,22 +8105,22 @@
       <c r="I151" s="1">
         <v>110</v>
       </c>
-      <c r="J151" s="6">
+      <c r="J151" s="5">
         <f t="shared" si="4"/>
         <v>69168</v>
       </c>
-      <c r="K151" s="4">
+      <c r="K151" s="3">
         <v>5</v>
       </c>
-      <c r="L151" s="5" t="s">
+      <c r="L151" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="M151" s="5" t="s">
+      <c r="M151" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="N151" s="4" t="str">
+      <c r="N151" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>May-2021</v>
+        <v>oct-2021</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
@@ -8149,22 +8151,22 @@
       <c r="I152" s="1">
         <v>40</v>
       </c>
-      <c r="J152" s="6">
+      <c r="J152" s="5">
         <f t="shared" si="4"/>
         <v>25152</v>
       </c>
-      <c r="K152" s="4">
+      <c r="K152" s="3">
         <v>5</v>
       </c>
-      <c r="L152" s="5" t="s">
+      <c r="L152" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="M152" s="5" t="s">
+      <c r="M152" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="N152" s="4" t="str">
+      <c r="N152" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>May-2021</v>
+        <v>ene-2021</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
@@ -8195,22 +8197,22 @@
       <c r="I153" s="1">
         <v>60</v>
       </c>
-      <c r="J153" s="6">
+      <c r="J153" s="5">
         <f t="shared" si="4"/>
         <v>37728</v>
       </c>
-      <c r="K153" s="4">
+      <c r="K153" s="3">
         <v>5</v>
       </c>
-      <c r="L153" s="5" t="s">
+      <c r="L153" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="M153" s="5" t="s">
+      <c r="M153" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="N153" s="4" t="str">
+      <c r="N153" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>May-2021</v>
+        <v>feb-2021</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
@@ -8241,22 +8243,22 @@
       <c r="I154" s="1">
         <v>60</v>
       </c>
-      <c r="J154" s="6">
+      <c r="J154" s="5">
         <f t="shared" si="4"/>
         <v>37728</v>
       </c>
-      <c r="K154" s="4">
+      <c r="K154" s="3">
         <v>5</v>
       </c>
-      <c r="L154" s="5" t="s">
+      <c r="L154" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="M154" s="5" t="s">
+      <c r="M154" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="N154" s="4" t="str">
+      <c r="N154" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>May-2021</v>
+        <v>mar-2021</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
@@ -8287,22 +8289,22 @@
       <c r="I155" s="1">
         <v>65</v>
       </c>
-      <c r="J155" s="6">
+      <c r="J155" s="5">
         <f t="shared" si="4"/>
         <v>40872</v>
       </c>
-      <c r="K155" s="4">
+      <c r="K155" s="3">
         <v>5</v>
       </c>
-      <c r="L155" s="5" t="s">
+      <c r="L155" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="M155" s="5" t="s">
+      <c r="M155" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="N155" s="4" t="str">
+      <c r="N155" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>May-2021</v>
+        <v>feb-2021</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
@@ -8333,22 +8335,22 @@
       <c r="I156" s="1">
         <v>20</v>
       </c>
-      <c r="J156" s="6">
+      <c r="J156" s="5">
         <f t="shared" si="4"/>
         <v>12576</v>
       </c>
-      <c r="K156" s="4">
+      <c r="K156" s="3">
         <v>5</v>
       </c>
-      <c r="L156" s="5" t="s">
+      <c r="L156" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="M156" s="5" t="s">
+      <c r="M156" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="N156" s="4" t="str">
+      <c r="N156" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>May-2021</v>
+        <v>sep-2021</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
@@ -8379,22 +8381,22 @@
       <c r="I157" s="1">
         <v>500</v>
       </c>
-      <c r="J157" s="6">
+      <c r="J157" s="5">
         <f t="shared" si="4"/>
         <v>314400</v>
       </c>
-      <c r="K157" s="4">
+      <c r="K157" s="3">
         <v>5</v>
       </c>
-      <c r="L157" s="5" t="s">
+      <c r="L157" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="M157" s="5" t="s">
+      <c r="M157" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="N157" s="4" t="str">
+      <c r="N157" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>May-2021</v>
+        <v>feb-2021</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
@@ -8425,22 +8427,22 @@
       <c r="I158" s="1">
         <v>60</v>
       </c>
-      <c r="J158" s="6">
+      <c r="J158" s="5">
         <f t="shared" si="4"/>
         <v>37728</v>
       </c>
-      <c r="K158" s="4">
+      <c r="K158" s="3">
         <v>5</v>
       </c>
-      <c r="L158" s="5" t="s">
+      <c r="L158" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="M158" s="5" t="s">
+      <c r="M158" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="N158" s="4" t="str">
+      <c r="N158" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>May-2021</v>
+        <v>feb-2021</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
@@ -8471,22 +8473,22 @@
       <c r="I159" s="1">
         <v>60</v>
       </c>
-      <c r="J159" s="6">
+      <c r="J159" s="5">
         <f t="shared" si="4"/>
         <v>37728</v>
       </c>
-      <c r="K159" s="4">
+      <c r="K159" s="3">
         <v>5</v>
       </c>
-      <c r="L159" s="5" t="s">
+      <c r="L159" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="M159" s="5" t="s">
+      <c r="M159" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="N159" s="4" t="str">
+      <c r="N159" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>May-2021</v>
+        <v>mar-2021</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
@@ -8517,22 +8519,22 @@
       <c r="I160" s="1">
         <v>15</v>
       </c>
-      <c r="J160" s="6">
+      <c r="J160" s="5">
         <f t="shared" si="4"/>
         <v>9432</v>
       </c>
-      <c r="K160" s="4">
+      <c r="K160" s="3">
         <v>5</v>
       </c>
-      <c r="L160" s="5" t="s">
+      <c r="L160" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="M160" s="5" t="s">
+      <c r="M160" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="N160" s="4" t="str">
+      <c r="N160" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>May-2021</v>
+        <v>05/16/2021</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
@@ -8563,22 +8565,22 @@
       <c r="I161" s="1">
         <v>25</v>
       </c>
-      <c r="J161" s="6">
+      <c r="J161" s="5">
         <f t="shared" si="4"/>
         <v>15719.999999999998</v>
       </c>
-      <c r="K161" s="4">
+      <c r="K161" s="3">
         <v>5</v>
       </c>
-      <c r="L161" s="5" t="s">
+      <c r="L161" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="M161" s="5" t="s">
+      <c r="M161" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="N161" s="4" t="str">
+      <c r="N161" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>May-2021</v>
+        <v>05/16/2021</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
@@ -8609,22 +8611,22 @@
       <c r="I162" s="1">
         <v>15</v>
       </c>
-      <c r="J162" s="6">
+      <c r="J162" s="5">
         <f t="shared" si="4"/>
         <v>9432</v>
       </c>
-      <c r="K162" s="4">
+      <c r="K162" s="3">
         <v>5</v>
       </c>
-      <c r="L162" s="5" t="s">
+      <c r="L162" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="M162" s="5" t="s">
+      <c r="M162" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="N162" s="4" t="str">
+      <c r="N162" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>May-2021</v>
+        <v>05/15/2021</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
@@ -8655,22 +8657,22 @@
       <c r="I163" s="1">
         <v>40</v>
       </c>
-      <c r="J163" s="6">
+      <c r="J163" s="5">
         <f t="shared" si="4"/>
         <v>25152</v>
       </c>
-      <c r="K163" s="4">
+      <c r="K163" s="3">
         <v>5</v>
       </c>
-      <c r="L163" s="5" t="s">
+      <c r="L163" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="M163" s="5" t="s">
+      <c r="M163" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="N163" s="4" t="str">
+      <c r="N163" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>May-2021</v>
+        <v>05/14/2021</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
@@ -8701,22 +8703,22 @@
       <c r="I164" s="1">
         <v>12</v>
       </c>
-      <c r="J164" s="6">
+      <c r="J164" s="5">
         <f t="shared" si="4"/>
         <v>7545.5999999999995</v>
       </c>
-      <c r="K164" s="4">
+      <c r="K164" s="3">
         <v>5</v>
       </c>
-      <c r="L164" s="5" t="s">
+      <c r="L164" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="M164" s="5" t="s">
+      <c r="M164" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="N164" s="4" t="str">
+      <c r="N164" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>May-2021</v>
+        <v>05/15/2021</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
@@ -8747,22 +8749,22 @@
       <c r="I165" s="1">
         <v>20</v>
       </c>
-      <c r="J165" s="6">
+      <c r="J165" s="5">
         <f t="shared" si="4"/>
         <v>12576</v>
       </c>
-      <c r="K165" s="4">
+      <c r="K165" s="3">
         <v>5</v>
       </c>
-      <c r="L165" s="5" t="s">
+      <c r="L165" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="M165" s="5" t="s">
+      <c r="M165" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="N165" s="4" t="str">
+      <c r="N165" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>May-2021</v>
+        <v>05/14/2021</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
@@ -8793,22 +8795,22 @@
       <c r="I166" s="1">
         <v>35</v>
       </c>
-      <c r="J166" s="6">
+      <c r="J166" s="5">
         <f t="shared" si="4"/>
         <v>22008</v>
       </c>
-      <c r="K166" s="4">
+      <c r="K166" s="3">
         <v>5</v>
       </c>
-      <c r="L166" s="5" t="s">
+      <c r="L166" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="M166" s="5" t="s">
+      <c r="M166" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="N166" s="4" t="str">
+      <c r="N166" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>May-2021</v>
+        <v>05/14/2021</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
@@ -8839,22 +8841,22 @@
       <c r="I167" s="1">
         <v>12</v>
       </c>
-      <c r="J167" s="6">
+      <c r="J167" s="5">
         <f t="shared" si="4"/>
         <v>7545.5999999999995</v>
       </c>
-      <c r="K167" s="4">
+      <c r="K167" s="3">
         <v>5</v>
       </c>
-      <c r="L167" s="5" t="s">
+      <c r="L167" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="M167" s="5" t="s">
+      <c r="M167" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="N167" s="4" t="str">
+      <c r="N167" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>May-2021</v>
+        <v>jun-2021</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
@@ -8885,22 +8887,22 @@
       <c r="I168" s="1">
         <v>10</v>
       </c>
-      <c r="J168" s="6">
+      <c r="J168" s="5">
         <f t="shared" si="4"/>
         <v>6288</v>
       </c>
-      <c r="K168" s="4">
+      <c r="K168" s="3">
         <v>5</v>
       </c>
-      <c r="L168" s="5" t="s">
+      <c r="L168" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="M168" s="5" t="s">
+      <c r="M168" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="N168" s="4" t="str">
+      <c r="N168" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>May-2021</v>
+        <v>05/15/2021</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
@@ -8931,22 +8933,22 @@
       <c r="I169" s="1">
         <v>40</v>
       </c>
-      <c r="J169" s="6">
+      <c r="J169" s="5">
         <f t="shared" si="4"/>
         <v>25152</v>
       </c>
-      <c r="K169" s="4">
+      <c r="K169" s="3">
         <v>5</v>
       </c>
-      <c r="L169" s="5" t="s">
+      <c r="L169" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="M169" s="5" t="s">
+      <c r="M169" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="N169" s="4" t="str">
+      <c r="N169" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>May-2021</v>
+        <v>05/18/2021</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
@@ -8977,22 +8979,22 @@
       <c r="I170" s="1">
         <v>20</v>
       </c>
-      <c r="J170" s="6">
+      <c r="J170" s="5">
         <f t="shared" si="4"/>
         <v>12576</v>
       </c>
-      <c r="K170" s="4">
+      <c r="K170" s="3">
         <v>5</v>
       </c>
-      <c r="L170" s="5" t="s">
+      <c r="L170" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M170" s="5" t="s">
+      <c r="M170" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="N170" s="4" t="str">
+      <c r="N170" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>May-2021</v>
+        <v>05/17/2021</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
@@ -9023,22 +9025,22 @@
       <c r="I171" s="1">
         <v>15</v>
       </c>
-      <c r="J171" s="6">
+      <c r="J171" s="5">
         <f t="shared" si="4"/>
         <v>9432</v>
       </c>
-      <c r="K171" s="4">
+      <c r="K171" s="3">
         <v>5</v>
       </c>
-      <c r="L171" s="5" t="s">
+      <c r="L171" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M171" s="5" t="s">
+      <c r="M171" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="N171" s="4" t="str">
+      <c r="N171" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>May-2021</v>
+        <v>05/17/2021</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
@@ -9069,22 +9071,22 @@
       <c r="I172" s="1">
         <v>20</v>
       </c>
-      <c r="J172" s="6">
+      <c r="J172" s="5">
         <f t="shared" si="4"/>
         <v>12576</v>
       </c>
-      <c r="K172" s="4">
+      <c r="K172" s="3">
         <v>5</v>
       </c>
-      <c r="L172" s="5" t="s">
+      <c r="L172" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="M172" s="5" t="s">
+      <c r="M172" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="N172" s="4" t="str">
+      <c r="N172" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>May-2021</v>
+        <v>05/24/2021</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
@@ -9115,22 +9117,22 @@
       <c r="I173" s="1">
         <v>200</v>
       </c>
-      <c r="J173" s="6">
+      <c r="J173" s="5">
         <f t="shared" si="4"/>
         <v>125759.99999999999</v>
       </c>
-      <c r="K173" s="4">
+      <c r="K173" s="3">
         <v>6</v>
       </c>
-      <c r="L173" s="5" t="s">
+      <c r="L173" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="M173" s="5" t="s">
+      <c r="M173" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N173" s="4" t="str">
+      <c r="N173" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Jun-2021</v>
+        <v>06/19/2021</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
@@ -9161,22 +9163,22 @@
       <c r="I174" s="1">
         <v>50</v>
       </c>
-      <c r="J174" s="6">
+      <c r="J174" s="5">
         <f t="shared" si="4"/>
         <v>31439.999999999996</v>
       </c>
-      <c r="K174" s="4">
+      <c r="K174" s="3">
         <v>6</v>
       </c>
-      <c r="L174" s="5" t="s">
+      <c r="L174" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="M174" s="5" t="s">
+      <c r="M174" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="N174" s="4" t="str">
+      <c r="N174" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Jun-2021</v>
+        <v>06/28/2021</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
@@ -9207,22 +9209,22 @@
       <c r="I175" s="1">
         <v>5</v>
       </c>
-      <c r="J175" s="6">
+      <c r="J175" s="5">
         <f t="shared" si="4"/>
         <v>3144</v>
       </c>
-      <c r="K175" s="4">
+      <c r="K175" s="3">
         <v>6</v>
       </c>
-      <c r="L175" s="5" t="s">
+      <c r="L175" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M175" s="5" t="s">
+      <c r="M175" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="N175" s="4" t="str">
+      <c r="N175" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Jun-2021</v>
+        <v>06/29/2021</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
@@ -9253,22 +9255,22 @@
       <c r="I176" s="1">
         <v>45</v>
       </c>
-      <c r="J176" s="6">
+      <c r="J176" s="5">
         <f t="shared" si="4"/>
         <v>28295.999999999996</v>
       </c>
-      <c r="K176" s="4">
+      <c r="K176" s="3">
         <v>6</v>
       </c>
-      <c r="L176" s="5" t="s">
+      <c r="L176" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="M176" s="5" t="s">
+      <c r="M176" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="N176" s="4" t="str">
+      <c r="N176" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Jun-2021</v>
+        <v>06/25/2021</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
@@ -9299,22 +9301,22 @@
       <c r="I177" s="1">
         <v>100</v>
       </c>
-      <c r="J177" s="6">
+      <c r="J177" s="5">
         <f t="shared" si="4"/>
         <v>62879.999999999993</v>
       </c>
-      <c r="K177" s="4">
+      <c r="K177" s="3">
         <v>6</v>
       </c>
-      <c r="L177" s="5" t="s">
+      <c r="L177" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="M177" s="5" t="s">
+      <c r="M177" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="N177" s="4" t="str">
+      <c r="N177" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Jun-2021</v>
+        <v>06/25/2021</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
@@ -9345,22 +9347,22 @@
       <c r="I178" s="1">
         <v>35</v>
       </c>
-      <c r="J178" s="6">
+      <c r="J178" s="5">
         <f t="shared" si="4"/>
         <v>22008</v>
       </c>
-      <c r="K178" s="4">
+      <c r="K178" s="3">
         <v>7</v>
       </c>
-      <c r="L178" s="5" t="s">
+      <c r="L178" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="M178" s="5" t="s">
+      <c r="M178" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="N178" s="4" t="str">
+      <c r="N178" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Jul-2021</v>
+        <v>ene-2021</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
@@ -9391,22 +9393,22 @@
       <c r="I179" s="1">
         <v>40</v>
       </c>
-      <c r="J179" s="6">
+      <c r="J179" s="5">
         <f t="shared" si="4"/>
         <v>25152</v>
       </c>
-      <c r="K179" s="4">
+      <c r="K179" s="3">
         <v>7</v>
       </c>
-      <c r="L179" s="5" t="s">
+      <c r="L179" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="M179" s="5" t="s">
+      <c r="M179" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="N179" s="4" t="str">
+      <c r="N179" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Jul-2021</v>
+        <v>ene-2021</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
@@ -9437,22 +9439,22 @@
       <c r="I180" s="1">
         <v>100</v>
       </c>
-      <c r="J180" s="6">
+      <c r="J180" s="5">
         <f t="shared" si="4"/>
         <v>62879.999999999993</v>
       </c>
-      <c r="K180" s="4">
+      <c r="K180" s="3">
         <v>7</v>
       </c>
-      <c r="L180" s="5" t="s">
+      <c r="L180" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="M180" s="5" t="s">
+      <c r="M180" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="N180" s="4" t="str">
+      <c r="N180" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Jul-2021</v>
+        <v>jun-2021</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
@@ -9483,22 +9485,22 @@
       <c r="I181" s="1">
         <v>40</v>
       </c>
-      <c r="J181" s="6">
+      <c r="J181" s="5">
         <f t="shared" si="4"/>
         <v>25152</v>
       </c>
-      <c r="K181" s="4">
+      <c r="K181" s="3">
         <v>7</v>
       </c>
-      <c r="L181" s="5" t="s">
+      <c r="L181" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="M181" s="5" t="s">
+      <c r="M181" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="N181" s="4" t="str">
+      <c r="N181" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Jul-2021</v>
+        <v>07/13/2021</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
@@ -9529,22 +9531,22 @@
       <c r="I182" s="1">
         <v>150</v>
       </c>
-      <c r="J182" s="6">
+      <c r="J182" s="5">
         <f t="shared" si="4"/>
         <v>94320</v>
       </c>
-      <c r="K182" s="4">
+      <c r="K182" s="3">
         <v>7</v>
       </c>
-      <c r="L182" s="5" t="s">
+      <c r="L182" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="M182" s="5" t="s">
+      <c r="M182" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="N182" s="4" t="str">
+      <c r="N182" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Jul-2021</v>
+        <v>sep-2021</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
@@ -9575,22 +9577,22 @@
       <c r="I183" s="1">
         <v>15</v>
       </c>
-      <c r="J183" s="6">
+      <c r="J183" s="5">
         <f t="shared" si="4"/>
         <v>9432</v>
       </c>
-      <c r="K183" s="4">
+      <c r="K183" s="3">
         <v>7</v>
       </c>
-      <c r="L183" s="5" t="s">
+      <c r="L183" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="M183" s="5" t="s">
+      <c r="M183" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="N183" s="4" t="str">
+      <c r="N183" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Jul-2021</v>
+        <v>07/17/2021</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
@@ -9621,22 +9623,22 @@
       <c r="I184" s="1">
         <v>18</v>
       </c>
-      <c r="J184" s="6">
+      <c r="J184" s="5">
         <f t="shared" si="4"/>
         <v>11318.4</v>
       </c>
-      <c r="K184" s="4">
+      <c r="K184" s="3">
         <v>7</v>
       </c>
-      <c r="L184" s="5" t="s">
+      <c r="L184" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="M184" s="5" t="s">
+      <c r="M184" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="N184" s="4" t="str">
+      <c r="N184" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Jul-2021</v>
+        <v>07/13/2021</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
@@ -9667,22 +9669,22 @@
       <c r="I185" s="1">
         <v>80</v>
       </c>
-      <c r="J185" s="6">
+      <c r="J185" s="5">
         <f t="shared" si="4"/>
         <v>50304</v>
       </c>
-      <c r="K185" s="4">
+      <c r="K185" s="3">
         <v>7</v>
       </c>
-      <c r="L185" s="5" t="s">
+      <c r="L185" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="M185" s="5" t="s">
+      <c r="M185" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="N185" s="4" t="str">
+      <c r="N185" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Jul-2021</v>
+        <v>07/21/2021</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
@@ -9713,22 +9715,22 @@
       <c r="I186" s="1">
         <v>53</v>
       </c>
-      <c r="J186" s="6">
+      <c r="J186" s="5">
         <f t="shared" si="4"/>
         <v>33326.399999999994</v>
       </c>
-      <c r="K186" s="4">
+      <c r="K186" s="3">
         <v>7</v>
       </c>
-      <c r="L186" s="5" t="s">
+      <c r="L186" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="M186" s="5" t="s">
+      <c r="M186" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="N186" s="4" t="str">
+      <c r="N186" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Jul-2021</v>
+        <v>07/26/2021</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
@@ -9759,22 +9761,22 @@
       <c r="I187" s="1">
         <v>30</v>
       </c>
-      <c r="J187" s="6">
+      <c r="J187" s="5">
         <f t="shared" si="4"/>
         <v>18864</v>
       </c>
-      <c r="K187" s="4">
+      <c r="K187" s="3">
         <v>7</v>
       </c>
-      <c r="L187" s="5" t="s">
+      <c r="L187" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="M187" s="5" t="s">
+      <c r="M187" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="N187" s="4" t="str">
+      <c r="N187" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Jul-2021</v>
+        <v>07/31/2021</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
@@ -9805,22 +9807,22 @@
       <c r="I188" s="1">
         <v>20</v>
       </c>
-      <c r="J188" s="6">
+      <c r="J188" s="5">
         <f t="shared" si="4"/>
         <v>12576</v>
       </c>
-      <c r="K188" s="4">
-        <v>8</v>
-      </c>
-      <c r="L188" s="5" t="s">
+      <c r="K188" s="3">
+        <v>8</v>
+      </c>
+      <c r="L188" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="M188" s="5" t="s">
+      <c r="M188" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="N188" s="4" t="str">
+      <c r="N188" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Aug-2021</v>
+        <v>mar-2021</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
@@ -9851,22 +9853,22 @@
       <c r="I189" s="1">
         <v>50</v>
       </c>
-      <c r="J189" s="6">
+      <c r="J189" s="5">
         <f t="shared" si="4"/>
         <v>31439.999999999996</v>
       </c>
-      <c r="K189" s="4">
-        <v>8</v>
-      </c>
-      <c r="L189" s="5" t="s">
+      <c r="K189" s="3">
+        <v>8</v>
+      </c>
+      <c r="L189" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="M189" s="5" t="s">
+      <c r="M189" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="N189" s="4" t="str">
+      <c r="N189" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Aug-2021</v>
+        <v>jul-2021</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
@@ -9897,22 +9899,22 @@
       <c r="I190" s="1">
         <v>10</v>
       </c>
-      <c r="J190" s="6">
+      <c r="J190" s="5">
         <f t="shared" si="4"/>
         <v>6288</v>
       </c>
-      <c r="K190" s="4">
-        <v>8</v>
-      </c>
-      <c r="L190" s="5" t="s">
+      <c r="K190" s="3">
+        <v>8</v>
+      </c>
+      <c r="L190" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="M190" s="5" t="s">
+      <c r="M190" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="N190" s="4" t="str">
+      <c r="N190" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Aug-2021</v>
+        <v>jun-2021</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
@@ -9943,22 +9945,22 @@
       <c r="I191" s="1">
         <v>150</v>
       </c>
-      <c r="J191" s="6">
+      <c r="J191" s="5">
         <f t="shared" si="4"/>
         <v>94320</v>
       </c>
-      <c r="K191" s="4">
-        <v>8</v>
-      </c>
-      <c r="L191" s="5" t="s">
+      <c r="K191" s="3">
+        <v>8</v>
+      </c>
+      <c r="L191" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="M191" s="5" t="s">
+      <c r="M191" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="N191" s="4" t="str">
+      <c r="N191" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Aug-2021</v>
+        <v>08/14/2021</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
@@ -9989,22 +9991,22 @@
       <c r="I192" s="1">
         <v>200</v>
       </c>
-      <c r="J192" s="6">
+      <c r="J192" s="5">
         <f t="shared" si="4"/>
         <v>125759.99999999999</v>
       </c>
-      <c r="K192" s="4">
-        <v>8</v>
-      </c>
-      <c r="L192" s="5" t="s">
+      <c r="K192" s="3">
+        <v>8</v>
+      </c>
+      <c r="L192" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="M192" s="5" t="s">
+      <c r="M192" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="N192" s="4" t="str">
+      <c r="N192" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Aug-2021</v>
+        <v>08/14/2021</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
@@ -10035,22 +10037,22 @@
       <c r="I193" s="1">
         <v>150</v>
       </c>
-      <c r="J193" s="6">
+      <c r="J193" s="5">
         <f t="shared" si="4"/>
         <v>94320</v>
       </c>
-      <c r="K193" s="4">
-        <v>8</v>
-      </c>
-      <c r="L193" s="5" t="s">
+      <c r="K193" s="3">
+        <v>8</v>
+      </c>
+      <c r="L193" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="M193" s="5" t="s">
+      <c r="M193" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="N193" s="4" t="str">
+      <c r="N193" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Aug-2021</v>
+        <v>08/14/2021</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
@@ -10081,22 +10083,22 @@
       <c r="I194" s="1">
         <v>50</v>
       </c>
-      <c r="J194" s="6">
+      <c r="J194" s="5">
         <f t="shared" si="4"/>
         <v>31439.999999999996</v>
       </c>
-      <c r="K194" s="4">
-        <v>8</v>
-      </c>
-      <c r="L194" s="5" t="s">
+      <c r="K194" s="3">
+        <v>8</v>
+      </c>
+      <c r="L194" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="M194" s="5" t="s">
+      <c r="M194" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="N194" s="4" t="str">
+      <c r="N194" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Aug-2021</v>
+        <v>08/14/2021</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
@@ -10127,22 +10129,22 @@
       <c r="I195" s="1">
         <v>125</v>
       </c>
-      <c r="J195" s="6">
+      <c r="J195" s="5">
         <f t="shared" ref="J195:J251" si="6">I195*628.8</f>
         <v>78600</v>
       </c>
-      <c r="K195" s="4">
-        <v>8</v>
-      </c>
-      <c r="L195" s="5" t="s">
+      <c r="K195" s="3">
+        <v>8</v>
+      </c>
+      <c r="L195" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="M195" s="5" t="s">
+      <c r="M195" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="N195" s="4" t="str">
+      <c r="N195" s="3" t="str">
         <f t="shared" ref="N195:N251" si="7" xml:space="preserve"> TEXT(L195, "mmm-yyyy")</f>
-        <v>Aug-2021</v>
+        <v>08/15/2021</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
@@ -10173,22 +10175,22 @@
       <c r="I196" s="1">
         <v>270</v>
       </c>
-      <c r="J196" s="6">
+      <c r="J196" s="5">
         <f t="shared" si="6"/>
         <v>169776</v>
       </c>
-      <c r="K196" s="4">
-        <v>8</v>
-      </c>
-      <c r="L196" s="5" t="s">
+      <c r="K196" s="3">
+        <v>8</v>
+      </c>
+      <c r="L196" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="M196" s="5" t="s">
+      <c r="M196" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="N196" s="4" t="str">
+      <c r="N196" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Aug-2021</v>
+        <v>08/21/2021</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
@@ -10219,22 +10221,22 @@
       <c r="I197" s="1">
         <v>37</v>
       </c>
-      <c r="J197" s="6">
+      <c r="J197" s="5">
         <f t="shared" si="6"/>
         <v>23265.599999999999</v>
       </c>
-      <c r="K197" s="4">
-        <v>8</v>
-      </c>
-      <c r="L197" s="5" t="s">
+      <c r="K197" s="3">
+        <v>8</v>
+      </c>
+      <c r="L197" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="M197" s="5" t="s">
+      <c r="M197" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="N197" s="4" t="str">
+      <c r="N197" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Aug-2021</v>
+        <v>08/22/2021</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
@@ -10265,22 +10267,22 @@
       <c r="I198" s="1">
         <v>60</v>
       </c>
-      <c r="J198" s="6">
+      <c r="J198" s="5">
         <f t="shared" si="6"/>
         <v>37728</v>
       </c>
-      <c r="K198" s="4">
-        <v>8</v>
-      </c>
-      <c r="L198" s="5" t="s">
+      <c r="K198" s="3">
+        <v>8</v>
+      </c>
+      <c r="L198" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="M198" s="5" t="s">
+      <c r="M198" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="N198" s="4" t="str">
+      <c r="N198" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Aug-2021</v>
+        <v>08/25/2021</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
@@ -10311,22 +10313,22 @@
       <c r="I199" s="1">
         <v>16</v>
       </c>
-      <c r="J199" s="6">
+      <c r="J199" s="5">
         <f t="shared" si="6"/>
         <v>10060.799999999999</v>
       </c>
-      <c r="K199" s="4">
-        <v>8</v>
-      </c>
-      <c r="L199" s="5" t="s">
+      <c r="K199" s="3">
+        <v>8</v>
+      </c>
+      <c r="L199" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="M199" s="5" t="s">
+      <c r="M199" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="N199" s="4" t="str">
+      <c r="N199" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Aug-2021</v>
+        <v>08/24/2021</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
@@ -10357,22 +10359,22 @@
       <c r="I200" s="1">
         <v>60</v>
       </c>
-      <c r="J200" s="6">
+      <c r="J200" s="5">
         <f t="shared" si="6"/>
         <v>37728</v>
       </c>
-      <c r="K200" s="4">
-        <v>8</v>
-      </c>
-      <c r="L200" s="5" t="s">
+      <c r="K200" s="3">
+        <v>8</v>
+      </c>
+      <c r="L200" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="M200" s="5" t="s">
+      <c r="M200" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="N200" s="4" t="str">
+      <c r="N200" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Aug-2021</v>
+        <v>08/18/2021</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
@@ -10403,22 +10405,22 @@
       <c r="I201" s="1">
         <v>40</v>
       </c>
-      <c r="J201" s="6">
+      <c r="J201" s="5">
         <f t="shared" si="6"/>
         <v>25152</v>
       </c>
-      <c r="K201" s="4">
-        <v>8</v>
-      </c>
-      <c r="L201" s="5" t="s">
+      <c r="K201" s="3">
+        <v>8</v>
+      </c>
+      <c r="L201" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="M201" s="5" t="s">
+      <c r="M201" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="N201" s="4" t="str">
+      <c r="N201" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Aug-2021</v>
+        <v>08/27/2021</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
@@ -10441,7 +10443,7 @@
         <v>54</v>
       </c>
       <c r="G202" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>8</v>
@@ -10449,22 +10451,22 @@
       <c r="I202" s="1">
         <v>50</v>
       </c>
-      <c r="J202" s="6">
+      <c r="J202" s="5">
         <f t="shared" si="6"/>
         <v>31439.999999999996</v>
       </c>
-      <c r="K202" s="4">
-        <v>8</v>
-      </c>
-      <c r="L202" s="5" t="s">
+      <c r="K202" s="3">
+        <v>8</v>
+      </c>
+      <c r="L202" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="M202" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="N202" s="4" t="str">
+      <c r="M202" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N202" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Aug-2021</v>
+        <v>08/27/2021</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
@@ -10495,22 +10497,22 @@
       <c r="I203" s="1">
         <v>40</v>
       </c>
-      <c r="J203" s="6">
+      <c r="J203" s="5">
         <f t="shared" si="6"/>
         <v>25152</v>
       </c>
-      <c r="K203" s="4">
-        <v>8</v>
-      </c>
-      <c r="L203" s="5" t="s">
+      <c r="K203" s="3">
+        <v>8</v>
+      </c>
+      <c r="L203" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="M203" s="5" t="s">
+      <c r="M203" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="N203" s="4" t="str">
+      <c r="N203" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Aug-2021</v>
+        <v>oct-2021</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
@@ -10541,22 +10543,22 @@
       <c r="I204" s="1">
         <v>50</v>
       </c>
-      <c r="J204" s="6">
+      <c r="J204" s="5">
         <f t="shared" si="6"/>
         <v>31439.999999999996</v>
       </c>
-      <c r="K204" s="4">
-        <v>8</v>
-      </c>
-      <c r="L204" s="5" t="s">
+      <c r="K204" s="3">
+        <v>8</v>
+      </c>
+      <c r="L204" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="M204" s="5" t="s">
+      <c r="M204" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="N204" s="4" t="str">
+      <c r="N204" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Aug-2021</v>
+        <v>08/14/2021</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
@@ -10587,22 +10589,22 @@
       <c r="I205" s="1">
         <v>378</v>
       </c>
-      <c r="J205" s="6">
+      <c r="J205" s="5">
         <f t="shared" si="6"/>
         <v>237686.39999999999</v>
       </c>
-      <c r="K205" s="4">
-        <v>8</v>
-      </c>
-      <c r="L205" s="5" t="s">
+      <c r="K205" s="3">
+        <v>8</v>
+      </c>
+      <c r="L205" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="M205" s="5" t="s">
+      <c r="M205" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="N205" s="4" t="str">
+      <c r="N205" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Aug-2021</v>
+        <v>08/29/2021</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
@@ -10633,22 +10635,22 @@
       <c r="I206" s="1">
         <v>40</v>
       </c>
-      <c r="J206" s="6">
+      <c r="J206" s="5">
         <f t="shared" si="6"/>
         <v>25152</v>
       </c>
-      <c r="K206" s="4">
-        <v>8</v>
-      </c>
-      <c r="L206" s="5" t="s">
+      <c r="K206" s="3">
+        <v>8</v>
+      </c>
+      <c r="L206" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="M206" s="5" t="s">
+      <c r="M206" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="N206" s="4" t="str">
+      <c r="N206" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Aug-2021</v>
+        <v>08/29/2021</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
@@ -10679,22 +10681,22 @@
       <c r="I207" s="1">
         <v>200</v>
       </c>
-      <c r="J207" s="6">
+      <c r="J207" s="5">
         <f t="shared" si="6"/>
         <v>125759.99999999999</v>
       </c>
-      <c r="K207" s="4">
-        <v>8</v>
-      </c>
-      <c r="L207" s="5" t="s">
+      <c r="K207" s="3">
+        <v>8</v>
+      </c>
+      <c r="L207" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="M207" s="5" t="s">
+      <c r="M207" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="N207" s="4" t="str">
+      <c r="N207" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Aug-2021</v>
+        <v>08/29/2021</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
@@ -10725,22 +10727,22 @@
       <c r="I208" s="1">
         <v>300</v>
       </c>
-      <c r="J208" s="6">
+      <c r="J208" s="5">
         <f t="shared" si="6"/>
         <v>188640</v>
       </c>
-      <c r="K208" s="4">
-        <v>8</v>
-      </c>
-      <c r="L208" s="5" t="s">
+      <c r="K208" s="3">
+        <v>8</v>
+      </c>
+      <c r="L208" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="M208" s="5" t="s">
+      <c r="M208" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="N208" s="4" t="str">
+      <c r="N208" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Aug-2021</v>
+        <v>08/28/2021</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
@@ -10771,22 +10773,22 @@
       <c r="I209" s="1">
         <v>150</v>
       </c>
-      <c r="J209" s="6">
+      <c r="J209" s="5">
         <f t="shared" si="6"/>
         <v>94320</v>
       </c>
-      <c r="K209" s="4">
-        <v>8</v>
-      </c>
-      <c r="L209" s="5" t="s">
+      <c r="K209" s="3">
+        <v>8</v>
+      </c>
+      <c r="L209" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="M209" s="5" t="s">
+      <c r="M209" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="N209" s="4" t="str">
+      <c r="N209" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Aug-2021</v>
+        <v>08/29/2021</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
@@ -10817,22 +10819,22 @@
       <c r="I210" s="1">
         <v>50</v>
       </c>
-      <c r="J210" s="6">
+      <c r="J210" s="5">
         <f t="shared" si="6"/>
         <v>31439.999999999996</v>
       </c>
-      <c r="K210" s="4">
-        <v>8</v>
-      </c>
-      <c r="L210" s="5" t="s">
+      <c r="K210" s="3">
+        <v>8</v>
+      </c>
+      <c r="L210" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="M210" s="5" t="s">
+      <c r="M210" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="N210" s="4" t="str">
+      <c r="N210" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Aug-2021</v>
+        <v>08/29/2021</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
@@ -10863,22 +10865,22 @@
       <c r="I211" s="1">
         <v>220</v>
       </c>
-      <c r="J211" s="6">
+      <c r="J211" s="5">
         <f t="shared" si="6"/>
         <v>138336</v>
       </c>
-      <c r="K211" s="4">
-        <v>8</v>
-      </c>
-      <c r="L211" s="5" t="s">
+      <c r="K211" s="3">
+        <v>8</v>
+      </c>
+      <c r="L211" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="M211" s="5" t="s">
+      <c r="M211" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="N211" s="4" t="str">
+      <c r="N211" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Aug-2021</v>
+        <v>08/30/2021</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
@@ -10909,22 +10911,22 @@
       <c r="I212" s="1">
         <v>8</v>
       </c>
-      <c r="J212" s="6">
+      <c r="J212" s="5">
         <f t="shared" si="6"/>
         <v>5030.3999999999996</v>
       </c>
-      <c r="K212" s="4">
-        <v>8</v>
-      </c>
-      <c r="L212" s="5" t="s">
+      <c r="K212" s="3">
+        <v>8</v>
+      </c>
+      <c r="L212" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="M212" s="5" t="s">
+      <c r="M212" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="N212" s="4" t="str">
+      <c r="N212" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Aug-2021</v>
+        <v>jun-2021</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
@@ -10955,22 +10957,22 @@
       <c r="I213" s="1">
         <v>4</v>
       </c>
-      <c r="J213" s="6">
+      <c r="J213" s="5">
         <f t="shared" si="6"/>
         <v>2515.1999999999998</v>
       </c>
-      <c r="K213" s="4">
-        <v>8</v>
-      </c>
-      <c r="L213" s="5" t="s">
+      <c r="K213" s="3">
+        <v>8</v>
+      </c>
+      <c r="L213" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="M213" s="5" t="s">
+      <c r="M213" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="N213" s="4" t="str">
+      <c r="N213" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Aug-2021</v>
+        <v>abr-2021</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
@@ -11001,22 +11003,22 @@
       <c r="I214" s="1">
         <v>20</v>
       </c>
-      <c r="J214" s="6">
+      <c r="J214" s="5">
         <f t="shared" si="6"/>
         <v>12576</v>
       </c>
-      <c r="K214" s="4">
-        <v>8</v>
-      </c>
-      <c r="L214" s="5" t="s">
+      <c r="K214" s="3">
+        <v>8</v>
+      </c>
+      <c r="L214" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="M214" s="5" t="s">
+      <c r="M214" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="N214" s="4" t="str">
+      <c r="N214" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Aug-2021</v>
+        <v>08/29/2021</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
@@ -11047,22 +11049,22 @@
       <c r="I215" s="1">
         <v>50</v>
       </c>
-      <c r="J215" s="6">
+      <c r="J215" s="5">
         <f t="shared" si="6"/>
         <v>31439.999999999996</v>
       </c>
-      <c r="K215" s="4">
-        <v>8</v>
-      </c>
-      <c r="L215" s="5" t="s">
+      <c r="K215" s="3">
+        <v>8</v>
+      </c>
+      <c r="L215" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="M215" s="5" t="s">
+      <c r="M215" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="N215" s="4" t="str">
+      <c r="N215" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Aug-2021</v>
+        <v>08/31/2021</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
@@ -11093,22 +11095,22 @@
       <c r="I216" s="1">
         <v>30</v>
       </c>
-      <c r="J216" s="6">
+      <c r="J216" s="5">
         <f t="shared" si="6"/>
         <v>18864</v>
       </c>
-      <c r="K216" s="4">
-        <v>8</v>
-      </c>
-      <c r="L216" s="5" t="s">
+      <c r="K216" s="3">
+        <v>8</v>
+      </c>
+      <c r="L216" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="M216" s="5" t="s">
+      <c r="M216" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="N216" s="4" t="str">
+      <c r="N216" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Aug-2021</v>
+        <v>08/31/2021</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
@@ -11139,22 +11141,22 @@
       <c r="I217" s="1">
         <v>800</v>
       </c>
-      <c r="J217" s="6">
+      <c r="J217" s="5">
         <f t="shared" si="6"/>
         <v>503039.99999999994</v>
       </c>
-      <c r="K217" s="4">
-        <v>8</v>
-      </c>
-      <c r="L217" s="5" t="s">
+      <c r="K217" s="3">
+        <v>8</v>
+      </c>
+      <c r="L217" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="M217" s="5" t="s">
+      <c r="M217" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="N217" s="4" t="str">
+      <c r="N217" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Aug-2021</v>
+        <v>08/29/2021</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
@@ -11185,22 +11187,22 @@
       <c r="I218" s="1">
         <v>1166</v>
       </c>
-      <c r="J218" s="6">
+      <c r="J218" s="5">
         <f t="shared" si="6"/>
         <v>733180.79999999993</v>
       </c>
-      <c r="K218" s="4">
+      <c r="K218" s="3">
         <v>9</v>
       </c>
-      <c r="L218" s="5" t="s">
+      <c r="L218" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="M218" s="5" t="s">
+      <c r="M218" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="N218" s="4" t="str">
+      <c r="N218" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Sep-2021</v>
+        <v>abr-2021</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
@@ -11231,22 +11233,22 @@
       <c r="I219" s="1">
         <v>30</v>
       </c>
-      <c r="J219" s="6">
+      <c r="J219" s="5">
         <f t="shared" si="6"/>
         <v>18864</v>
       </c>
-      <c r="K219" s="4">
+      <c r="K219" s="3">
         <v>9</v>
       </c>
-      <c r="L219" s="5" t="s">
+      <c r="L219" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="M219" s="5" t="s">
+      <c r="M219" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="N219" s="4" t="str">
+      <c r="N219" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Sep-2021</v>
+        <v>jul-2021</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
@@ -11277,22 +11279,22 @@
       <c r="I220" s="1">
         <v>15</v>
       </c>
-      <c r="J220" s="6">
+      <c r="J220" s="5">
         <f t="shared" si="6"/>
         <v>9432</v>
       </c>
-      <c r="K220" s="4">
+      <c r="K220" s="3">
         <v>9</v>
       </c>
-      <c r="L220" s="5" t="s">
+      <c r="L220" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="M220" s="5" t="s">
+      <c r="M220" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="N220" s="4" t="str">
+      <c r="N220" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Sep-2021</v>
+        <v>ago-2021</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
@@ -11323,22 +11325,22 @@
       <c r="I221" s="1">
         <v>20</v>
       </c>
-      <c r="J221" s="6">
+      <c r="J221" s="5">
         <f t="shared" si="6"/>
         <v>12576</v>
       </c>
-      <c r="K221" s="4">
+      <c r="K221" s="3">
         <v>9</v>
       </c>
-      <c r="L221" s="5" t="s">
+      <c r="L221" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="M221" s="5" t="s">
+      <c r="M221" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="N221" s="4" t="str">
+      <c r="N221" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Sep-2021</v>
+        <v>ago-2021</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
@@ -11369,22 +11371,22 @@
       <c r="I222" s="1">
         <v>60</v>
       </c>
-      <c r="J222" s="6">
+      <c r="J222" s="5">
         <f t="shared" si="6"/>
         <v>37728</v>
       </c>
-      <c r="K222" s="4">
+      <c r="K222" s="3">
         <v>9</v>
       </c>
-      <c r="L222" s="5" t="s">
+      <c r="L222" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="M222" s="5" t="s">
+      <c r="M222" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="N222" s="4" t="str">
+      <c r="N222" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Sep-2021</v>
+        <v>ago-2021</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
@@ -11415,22 +11417,22 @@
       <c r="I223" s="1">
         <v>60</v>
       </c>
-      <c r="J223" s="6">
+      <c r="J223" s="5">
         <f t="shared" si="6"/>
         <v>37728</v>
       </c>
-      <c r="K223" s="4">
+      <c r="K223" s="3">
         <v>9</v>
       </c>
-      <c r="L223" s="5" t="s">
+      <c r="L223" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="M223" s="5" t="s">
+      <c r="M223" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="N223" s="4" t="str">
+      <c r="N223" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Sep-2021</v>
+        <v>ago-2021</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
@@ -11461,22 +11463,22 @@
       <c r="I224" s="1">
         <v>25</v>
       </c>
-      <c r="J224" s="6">
+      <c r="J224" s="5">
         <f t="shared" si="6"/>
         <v>15719.999999999998</v>
       </c>
-      <c r="K224" s="4">
+      <c r="K224" s="3">
         <v>9</v>
       </c>
-      <c r="L224" s="5" t="s">
+      <c r="L224" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="M224" s="5" t="s">
+      <c r="M224" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="N224" s="4" t="str">
+      <c r="N224" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Sep-2021</v>
+        <v>ago-2021</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
@@ -11507,22 +11509,22 @@
       <c r="I225" s="1">
         <v>20</v>
       </c>
-      <c r="J225" s="6">
+      <c r="J225" s="5">
         <f t="shared" si="6"/>
         <v>12576</v>
       </c>
-      <c r="K225" s="4">
+      <c r="K225" s="3">
         <v>9</v>
       </c>
-      <c r="L225" s="5" t="s">
+      <c r="L225" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="M225" s="5" t="s">
+      <c r="M225" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="N225" s="4" t="str">
+      <c r="N225" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Sep-2021</v>
+        <v>ago-2021</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
@@ -11553,22 +11555,22 @@
       <c r="I226" s="1">
         <v>40</v>
       </c>
-      <c r="J226" s="6">
+      <c r="J226" s="5">
         <f t="shared" si="6"/>
         <v>25152</v>
       </c>
-      <c r="K226" s="4">
+      <c r="K226" s="3">
         <v>9</v>
       </c>
-      <c r="L226" s="5" t="s">
+      <c r="L226" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="M226" s="5" t="s">
+      <c r="M226" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="N226" s="4" t="str">
+      <c r="N226" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Sep-2021</v>
+        <v>ago-2021</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
@@ -11599,22 +11601,22 @@
       <c r="I227" s="1">
         <v>50</v>
       </c>
-      <c r="J227" s="6">
+      <c r="J227" s="5">
         <f t="shared" si="6"/>
         <v>31439.999999999996</v>
       </c>
-      <c r="K227" s="4">
+      <c r="K227" s="3">
         <v>9</v>
       </c>
-      <c r="L227" s="5" t="s">
+      <c r="L227" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="M227" s="5" t="s">
+      <c r="M227" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="N227" s="4" t="str">
+      <c r="N227" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Sep-2021</v>
+        <v>jun-2021</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
@@ -11645,22 +11647,22 @@
       <c r="I228" s="2">
         <v>27200</v>
       </c>
-      <c r="J228" s="6">
+      <c r="J228" s="5">
         <f t="shared" si="6"/>
         <v>17103360</v>
       </c>
-      <c r="K228" s="4">
+      <c r="K228" s="3">
         <v>9</v>
       </c>
-      <c r="L228" s="5" t="s">
+      <c r="L228" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="M228" s="5" t="s">
+      <c r="M228" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="N228" s="4" t="str">
+      <c r="N228" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Sep-2021</v>
+        <v>09/15/2021</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
@@ -11691,22 +11693,22 @@
       <c r="I229" s="1">
         <v>6</v>
       </c>
-      <c r="J229" s="6">
+      <c r="J229" s="5">
         <f t="shared" si="6"/>
         <v>3772.7999999999997</v>
       </c>
-      <c r="K229" s="4">
+      <c r="K229" s="3">
         <v>10</v>
       </c>
-      <c r="L229" s="5" t="s">
+      <c r="L229" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="M229" s="5" t="s">
+      <c r="M229" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="N229" s="4" t="str">
+      <c r="N229" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Oct-2021</v>
+        <v>ene-2021</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
@@ -11737,22 +11739,22 @@
       <c r="I230" s="1">
         <v>15</v>
       </c>
-      <c r="J230" s="6">
+      <c r="J230" s="5">
         <f t="shared" si="6"/>
         <v>9432</v>
       </c>
-      <c r="K230" s="4">
+      <c r="K230" s="3">
         <v>10</v>
       </c>
-      <c r="L230" s="5" t="s">
+      <c r="L230" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="M230" s="5" t="s">
+      <c r="M230" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="N230" s="4" t="str">
+      <c r="N230" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Oct-2021</v>
+        <v>10/25/2021</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
@@ -11783,22 +11785,22 @@
       <c r="I231" s="1">
         <v>30</v>
       </c>
-      <c r="J231" s="6">
+      <c r="J231" s="5">
         <f t="shared" si="6"/>
         <v>18864</v>
       </c>
-      <c r="K231" s="4">
+      <c r="K231" s="3">
         <v>11</v>
       </c>
-      <c r="L231" s="5" t="s">
+      <c r="L231" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="M231" s="5" t="s">
+      <c r="M231" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="N231" s="4" t="str">
+      <c r="N231" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Nov-2021</v>
+        <v>may-2021</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
@@ -11829,22 +11831,22 @@
       <c r="I232" s="1">
         <v>15</v>
       </c>
-      <c r="J232" s="6">
+      <c r="J232" s="5">
         <f t="shared" si="6"/>
         <v>9432</v>
       </c>
-      <c r="K232" s="4">
+      <c r="K232" s="3">
         <v>11</v>
       </c>
-      <c r="L232" s="5" t="s">
+      <c r="L232" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="M232" s="5" t="s">
+      <c r="M232" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="N232" s="4" t="str">
+      <c r="N232" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Nov-2021</v>
+        <v>may-2021</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
@@ -11875,22 +11877,22 @@
       <c r="I233" s="1">
         <v>25</v>
       </c>
-      <c r="J233" s="6">
+      <c r="J233" s="5">
         <f t="shared" si="6"/>
         <v>15719.999999999998</v>
       </c>
-      <c r="K233" s="4">
+      <c r="K233" s="3">
         <v>11</v>
       </c>
-      <c r="L233" s="5" t="s">
+      <c r="L233" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="M233" s="5" t="s">
+      <c r="M233" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="N233" s="4" t="str">
+      <c r="N233" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Nov-2021</v>
+        <v>abr-2021</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
@@ -11921,22 +11923,22 @@
       <c r="I234" s="1">
         <v>35</v>
       </c>
-      <c r="J234" s="6">
+      <c r="J234" s="5">
         <f t="shared" si="6"/>
         <v>22008</v>
       </c>
-      <c r="K234" s="4">
+      <c r="K234" s="3">
         <v>11</v>
       </c>
-      <c r="L234" s="5" t="s">
+      <c r="L234" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="M234" s="5" t="s">
+      <c r="M234" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="N234" s="4" t="str">
+      <c r="N234" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Nov-2021</v>
+        <v>sep-2021</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
@@ -11967,22 +11969,22 @@
       <c r="I235" s="1">
         <v>12</v>
       </c>
-      <c r="J235" s="6">
+      <c r="J235" s="5">
         <f t="shared" si="6"/>
         <v>7545.5999999999995</v>
       </c>
-      <c r="K235" s="4">
+      <c r="K235" s="3">
         <v>11</v>
       </c>
-      <c r="L235" s="5" t="s">
+      <c r="L235" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="M235" s="5" t="s">
+      <c r="M235" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="N235" s="4" t="str">
+      <c r="N235" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Nov-2021</v>
+        <v>11/19/2021</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
@@ -12013,22 +12015,22 @@
       <c r="I236" s="1">
         <v>50</v>
       </c>
-      <c r="J236" s="6">
+      <c r="J236" s="5">
         <f t="shared" si="6"/>
         <v>31439.999999999996</v>
       </c>
-      <c r="K236" s="4">
+      <c r="K236" s="3">
         <v>11</v>
       </c>
-      <c r="L236" s="5" t="s">
+      <c r="L236" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="M236" s="5" t="s">
+      <c r="M236" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="N236" s="4" t="str">
+      <c r="N236" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Nov-2021</v>
+        <v>11/20/2021</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
@@ -12059,22 +12061,22 @@
       <c r="I237" s="1">
         <v>45</v>
       </c>
-      <c r="J237" s="6">
+      <c r="J237" s="5">
         <f t="shared" si="6"/>
         <v>28295.999999999996</v>
       </c>
-      <c r="K237" s="4">
+      <c r="K237" s="3">
         <v>11</v>
       </c>
-      <c r="L237" s="5" t="s">
+      <c r="L237" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="M237" s="5" t="s">
+      <c r="M237" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="N237" s="4" t="str">
+      <c r="N237" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Nov-2021</v>
+        <v>11/22/2021</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
@@ -12105,22 +12107,22 @@
       <c r="I238" s="1">
         <v>15</v>
       </c>
-      <c r="J238" s="6">
+      <c r="J238" s="5">
         <f t="shared" si="6"/>
         <v>9432</v>
       </c>
-      <c r="K238" s="4">
+      <c r="K238" s="3">
         <v>11</v>
       </c>
-      <c r="L238" s="5" t="s">
+      <c r="L238" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="M238" s="5" t="s">
+      <c r="M238" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="N238" s="4" t="str">
+      <c r="N238" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Nov-2021</v>
+        <v>11/26/2021</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
@@ -12151,22 +12153,22 @@
       <c r="I239" s="1">
         <v>266</v>
       </c>
-      <c r="J239" s="6">
+      <c r="J239" s="5">
         <f t="shared" si="6"/>
         <v>167260.79999999999</v>
       </c>
-      <c r="K239" s="4">
+      <c r="K239" s="3">
         <v>11</v>
       </c>
-      <c r="L239" s="5" t="s">
+      <c r="L239" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="M239" s="5" t="s">
+      <c r="M239" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="N239" s="4" t="str">
+      <c r="N239" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Nov-2021</v>
+        <v>11/24/2021</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.25">
@@ -12197,22 +12199,22 @@
       <c r="I240" s="1">
         <v>5</v>
       </c>
-      <c r="J240" s="6">
+      <c r="J240" s="5">
         <f t="shared" si="6"/>
         <v>3144</v>
       </c>
-      <c r="K240" s="4">
+      <c r="K240" s="3">
         <v>11</v>
       </c>
-      <c r="L240" s="5" t="s">
+      <c r="L240" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="M240" s="5" t="s">
+      <c r="M240" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="N240" s="4" t="str">
+      <c r="N240" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Nov-2021</v>
+        <v>ene-2021</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.25">
@@ -12243,22 +12245,22 @@
       <c r="I241" s="1">
         <v>5</v>
       </c>
-      <c r="J241" s="6">
+      <c r="J241" s="5">
         <f t="shared" si="6"/>
         <v>3144</v>
       </c>
-      <c r="K241" s="4">
+      <c r="K241" s="3">
         <v>11</v>
       </c>
-      <c r="L241" s="5" t="s">
+      <c r="L241" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="M241" s="5" t="s">
+      <c r="M241" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="N241" s="4" t="str">
+      <c r="N241" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Nov-2021</v>
+        <v>ene-2021</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
@@ -12289,22 +12291,22 @@
       <c r="I242" s="1">
         <v>45</v>
       </c>
-      <c r="J242" s="6">
+      <c r="J242" s="5">
         <f t="shared" si="6"/>
         <v>28295.999999999996</v>
       </c>
-      <c r="K242" s="4">
+      <c r="K242" s="3">
         <v>11</v>
       </c>
-      <c r="L242" s="5" t="s">
+      <c r="L242" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="M242" s="5" t="s">
+      <c r="M242" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="N242" s="4" t="str">
+      <c r="N242" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Nov-2021</v>
+        <v>11/13/2021</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
@@ -12335,22 +12337,22 @@
       <c r="I243" s="1">
         <v>10</v>
       </c>
-      <c r="J243" s="6">
+      <c r="J243" s="5">
         <f t="shared" si="6"/>
         <v>6288</v>
       </c>
-      <c r="K243" s="4">
+      <c r="K243" s="3">
         <v>11</v>
       </c>
-      <c r="L243" s="5" t="s">
+      <c r="L243" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="M243" s="5" t="s">
+      <c r="M243" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="N243" s="4" t="str">
+      <c r="N243" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Nov-2021</v>
+        <v>ene-2021</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
@@ -12381,22 +12383,22 @@
       <c r="I244" s="1">
         <v>300</v>
       </c>
-      <c r="J244" s="6">
+      <c r="J244" s="5">
         <f t="shared" si="6"/>
         <v>188640</v>
       </c>
-      <c r="K244" s="4">
+      <c r="K244" s="3">
         <v>12</v>
       </c>
-      <c r="L244" s="5" t="s">
+      <c r="L244" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="M244" s="5" t="s">
+      <c r="M244" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="N244" s="4" t="str">
+      <c r="N244" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Dec-2021</v>
+        <v>12/14/2021</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
@@ -12427,22 +12429,22 @@
       <c r="I245" s="1">
         <v>20</v>
       </c>
-      <c r="J245" s="6">
+      <c r="J245" s="5">
         <f t="shared" si="6"/>
         <v>12576</v>
       </c>
-      <c r="K245" s="4">
+      <c r="K245" s="3">
         <v>12</v>
       </c>
-      <c r="L245" s="5" t="s">
+      <c r="L245" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="M245" s="5" t="s">
+      <c r="M245" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="N245" s="4" t="str">
+      <c r="N245" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Dec-2021</v>
+        <v>dic-2021</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
@@ -12473,22 +12475,22 @@
       <c r="I246" s="1">
         <v>15</v>
       </c>
-      <c r="J246" s="6">
+      <c r="J246" s="5">
         <f t="shared" si="6"/>
         <v>9432</v>
       </c>
-      <c r="K246" s="4">
+      <c r="K246" s="3">
         <v>12</v>
       </c>
-      <c r="L246" s="5" t="s">
+      <c r="L246" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="M246" s="5" t="s">
+      <c r="M246" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="N246" s="4" t="str">
+      <c r="N246" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Dec-2021</v>
+        <v>12/20/2021</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
@@ -12519,22 +12521,22 @@
       <c r="I247" s="1">
         <v>8</v>
       </c>
-      <c r="J247" s="6">
+      <c r="J247" s="5">
         <f t="shared" si="6"/>
         <v>5030.3999999999996</v>
       </c>
-      <c r="K247" s="4">
+      <c r="K247" s="3">
         <v>12</v>
       </c>
-      <c r="L247" s="5" t="s">
+      <c r="L247" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="M247" s="5" t="s">
+      <c r="M247" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="N247" s="4" t="str">
+      <c r="N247" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Dec-2021</v>
+        <v>12/19/2021</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
@@ -12565,22 +12567,22 @@
       <c r="I248" s="1">
         <v>15</v>
       </c>
-      <c r="J248" s="6">
+      <c r="J248" s="5">
         <f t="shared" si="6"/>
         <v>9432</v>
       </c>
-      <c r="K248" s="4">
+      <c r="K248" s="3">
         <v>12</v>
       </c>
-      <c r="L248" s="5" t="s">
+      <c r="L248" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="M248" s="5" t="s">
+      <c r="M248" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="N248" s="4" t="str">
+      <c r="N248" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Dec-2021</v>
+        <v>12/17/2021</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
@@ -12611,22 +12613,22 @@
       <c r="I249" s="1">
         <v>25</v>
       </c>
-      <c r="J249" s="6">
+      <c r="J249" s="5">
         <f t="shared" si="6"/>
         <v>15719.999999999998</v>
       </c>
-      <c r="K249" s="4">
+      <c r="K249" s="3">
         <v>12</v>
       </c>
-      <c r="L249" s="5" t="s">
+      <c r="L249" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="M249" s="5" t="s">
+      <c r="M249" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="N249" s="4" t="str">
+      <c r="N249" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Dec-2021</v>
+        <v>12/18/2021</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
@@ -12657,22 +12659,22 @@
       <c r="I250" s="1">
         <v>10</v>
       </c>
-      <c r="J250" s="6">
+      <c r="J250" s="5">
         <f t="shared" si="6"/>
         <v>6288</v>
       </c>
-      <c r="K250" s="4">
+      <c r="K250" s="3">
         <v>12</v>
       </c>
-      <c r="L250" s="5" t="s">
+      <c r="L250" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="M250" s="5" t="s">
+      <c r="M250" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="N250" s="4" t="str">
+      <c r="N250" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Dec-2021</v>
+        <v>12/20/2021</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
@@ -12703,22 +12705,22 @@
       <c r="I251" s="1">
         <v>745</v>
       </c>
-      <c r="J251" s="6">
+      <c r="J251" s="5">
         <f t="shared" si="6"/>
         <v>468455.99999999994</v>
       </c>
-      <c r="K251" s="4">
+      <c r="K251" s="3">
         <v>12</v>
       </c>
-      <c r="L251" s="5" t="s">
+      <c r="L251" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="M251" s="5" t="s">
+      <c r="M251" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="N251" s="4" t="str">
+      <c r="N251" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>Dec-2021</v>
+        <v>12/21/2021</v>
       </c>
     </row>
   </sheetData>

--- a/data/Incendios-Forestales-2021.xlsx
+++ b/data/Incendios-Forestales-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP 15\Downloads\Samsung\Repositorio\sic-forest-fire-rd\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0CB1C0-A76E-48C1-B439-F97499C536D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D8BCF4-7725-4111-AFFD-5D37B2C4B2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9C335E22-CF0A-E849-BFB8-AAA567361A93}"/>
   </bookViews>
@@ -1157,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87353C5-2ABF-6842-BB28-922F55B6FC01}">
   <dimension ref="A1:N251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D194" workbookViewId="0">
-      <selection activeCell="G202" sqref="G202"/>
+    <sheetView tabSelected="1" topLeftCell="F47" workbookViewId="0">
+      <selection activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3838,7 +3838,7 @@
         <v>108</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="N58" s="3" t="str">
         <f t="shared" si="1"/>

--- a/data/Incendios-Forestales-2021.xlsx
+++ b/data/Incendios-Forestales-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP 15\Downloads\Samsung\Repositorio\sic-forest-fire-rd\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D8BCF4-7725-4111-AFFD-5D37B2C4B2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E239FA6E-8E47-411F-86F8-D915F6C11A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9C335E22-CF0A-E849-BFB8-AAA567361A93}"/>
   </bookViews>
@@ -1157,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87353C5-2ABF-6842-BB28-922F55B6FC01}">
   <dimension ref="A1:N251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F47" workbookViewId="0">
-      <selection activeCell="O59" sqref="O59"/>
+    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/Incendios-Forestales-2021.xlsx
+++ b/data/Incendios-Forestales-2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP 15\Downloads\Samsung\Repositorio\sic-forest-fire-rd\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THE FSR\source\repos\sic-forest-fire-rd\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0CB1C0-A76E-48C1-B439-F97499C536D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA05683-9953-40EB-A088-59401EAEF7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9C335E22-CF0A-E849-BFB8-AAA567361A93}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9C335E22-CF0A-E849-BFB8-AAA567361A93}"/>
   </bookViews>
   <sheets>
     <sheet name="2021" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="247">
   <si>
     <t>no.</t>
   </si>
@@ -771,6 +769,15 @@
   </si>
   <si>
     <t>No Intencional</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Gastos por m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -823,7 +830,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -840,9 +847,15 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -859,9 +872,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -899,7 +912,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1005,7 +1018,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1147,7 +1160,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1155,31 +1168,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87353C5-2ABF-6842-BB28-922F55B6FC01}">
-  <dimension ref="A1:N251"/>
+  <dimension ref="A1:P251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D194" workbookViewId="0">
-      <selection activeCell="G202" sqref="G202"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" style="3" customWidth="1"/>
     <col min="2" max="2" width="16" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="10.85546875" style="3"/>
+    <col min="3" max="3" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="10.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1222,8 +1235,12 @@
       <c r="N1" s="3" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1268,8 +1285,9 @@
         <f xml:space="preserve"> TEXT(L2, "mmm-yyyy")</f>
         <v>may-2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1314,8 +1332,11 @@
         <f t="shared" ref="N3:N66" si="1" xml:space="preserve"> TEXT(L3, "mmm-yyyy")</f>
         <v>01/13/2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1360,8 +1381,11 @@
         <f t="shared" si="1"/>
         <v>mar-2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1406,8 +1430,11 @@
         <f t="shared" si="1"/>
         <v>01/16/2021</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1452,8 +1479,11 @@
         <f t="shared" si="1"/>
         <v>01/15/2021</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1498,8 +1528,11 @@
         <f t="shared" si="1"/>
         <v>01/17/2021</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1544,8 +1577,11 @@
         <f t="shared" si="1"/>
         <v>01/18/2021</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1590,8 +1626,11 @@
         <f t="shared" si="1"/>
         <v>01/23/2021</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1636,8 +1675,11 @@
         <f t="shared" si="1"/>
         <v>01/25/2021</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1682,8 +1724,11 @@
         <f t="shared" si="1"/>
         <v>01/25/2021</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1728,8 +1773,11 @@
         <f t="shared" si="1"/>
         <v>01/27/2021</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1774,8 +1822,11 @@
         <f t="shared" si="1"/>
         <v>01/27/2021</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1820,8 +1871,11 @@
         <f t="shared" si="1"/>
         <v>01/26/2021</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1866,8 +1920,11 @@
         <f t="shared" si="1"/>
         <v>01/26/2021</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1912,8 +1969,11 @@
         <f t="shared" si="1"/>
         <v>01/20/2021</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1958,8 +2018,11 @@
         <f t="shared" si="1"/>
         <v>01/20/2021</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2004,8 +2067,11 @@
         <f t="shared" si="1"/>
         <v>01/24/2021</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2050,8 +2116,11 @@
         <f t="shared" si="1"/>
         <v>01/24/2021</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2096,8 +2165,11 @@
         <f t="shared" si="1"/>
         <v>01/24/2021</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2142,8 +2214,11 @@
         <f t="shared" si="1"/>
         <v>01/18/2021</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2188,8 +2263,11 @@
         <f t="shared" si="1"/>
         <v>feb-2021</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2234,8 +2312,11 @@
         <f t="shared" si="1"/>
         <v>abr-2021</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2280,8 +2361,11 @@
         <f t="shared" si="1"/>
         <v>ago-2021</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2326,8 +2410,11 @@
         <f t="shared" si="1"/>
         <v>jul-2021</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2372,8 +2459,11 @@
         <f t="shared" si="1"/>
         <v>sep-2021</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2418,8 +2508,11 @@
         <f t="shared" si="1"/>
         <v>02/16/2021</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2464,8 +2557,11 @@
         <f t="shared" si="1"/>
         <v>02/15/2021</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2510,8 +2606,11 @@
         <f t="shared" si="1"/>
         <v>02/19/2021</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2556,8 +2655,11 @@
         <f t="shared" si="1"/>
         <v>02/20/2021</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2602,8 +2704,11 @@
         <f t="shared" si="1"/>
         <v>02/22/2021</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2648,8 +2753,11 @@
         <f t="shared" si="1"/>
         <v>02/23/2021</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2694,8 +2802,11 @@
         <f t="shared" si="1"/>
         <v>02/22/2021</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2740,8 +2851,11 @@
         <f t="shared" si="1"/>
         <v>02/17/2021</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2786,8 +2900,11 @@
         <f t="shared" si="1"/>
         <v>02/19/2021</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2832,8 +2949,11 @@
         <f t="shared" si="1"/>
         <v>02/24/2021</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2878,8 +2998,11 @@
         <f t="shared" si="1"/>
         <v>02/21/2021</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2924,8 +3047,11 @@
         <f t="shared" si="1"/>
         <v>abr-2021</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2970,8 +3096,11 @@
         <f t="shared" si="1"/>
         <v>02/25/2021</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3016,8 +3145,11 @@
         <f t="shared" si="1"/>
         <v>02/19/2021</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3062,8 +3194,11 @@
         <f t="shared" si="1"/>
         <v>02/25/2021</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3108,8 +3243,11 @@
         <f t="shared" si="1"/>
         <v>02/28/2021</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3154,8 +3292,11 @@
         <f t="shared" si="1"/>
         <v>02/20/2021</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3200,8 +3341,11 @@
         <f t="shared" si="1"/>
         <v>02/21/2021</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3246,8 +3390,11 @@
         <f t="shared" si="1"/>
         <v>02/19/2021</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3292,8 +3439,11 @@
         <f t="shared" si="1"/>
         <v>02/26/2021</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O46" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3338,8 +3488,11 @@
         <f t="shared" si="1"/>
         <v>02/28/2021</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3384,8 +3537,11 @@
         <f t="shared" si="1"/>
         <v>02/26/2021</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3430,8 +3586,11 @@
         <f t="shared" si="1"/>
         <v>jul-2021</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O49" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3476,8 +3635,11 @@
         <f t="shared" si="1"/>
         <v>02/26/2021</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3522,8 +3684,11 @@
         <f t="shared" si="1"/>
         <v>jul-2021</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3568,8 +3733,11 @@
         <f t="shared" si="1"/>
         <v>dic-2021</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3614,8 +3782,11 @@
         <f t="shared" si="1"/>
         <v>02/27/2021</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3660,8 +3831,11 @@
         <f t="shared" si="1"/>
         <v>02/20/2021</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O54" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3706,8 +3880,11 @@
         <f t="shared" si="1"/>
         <v>02/26/2021</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3752,8 +3929,11 @@
         <f t="shared" si="1"/>
         <v>02/27/2021</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O56" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3798,8 +3978,11 @@
         <f t="shared" si="1"/>
         <v>02/26/2021</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O57" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3844,8 +4027,11 @@
         <f t="shared" si="1"/>
         <v>ago-2021</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3890,8 +4076,11 @@
         <f t="shared" si="1"/>
         <v>jun-2021</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3936,8 +4125,11 @@
         <f t="shared" si="1"/>
         <v>jul-2021</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3982,8 +4174,11 @@
         <f t="shared" si="1"/>
         <v>mar-2021</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4028,8 +4223,11 @@
         <f t="shared" si="1"/>
         <v>mar-2021</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O62" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4074,8 +4272,11 @@
         <f t="shared" si="1"/>
         <v>may-2021</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O63" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4120,8 +4321,11 @@
         <f t="shared" si="1"/>
         <v>may-2021</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O64" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4166,8 +4370,11 @@
         <f t="shared" si="1"/>
         <v>02/28/2021</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O65" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4212,8 +4419,11 @@
         <f t="shared" si="1"/>
         <v>mar-2021</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O66" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4258,8 +4468,11 @@
         <f t="shared" ref="N67:N130" si="3" xml:space="preserve"> TEXT(L67, "mmm-yyyy")</f>
         <v>ene-2021</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O67" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4304,8 +4517,11 @@
         <f t="shared" si="3"/>
         <v>may-2021</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O68" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4350,8 +4566,11 @@
         <f t="shared" si="3"/>
         <v>may-2021</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O69" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4396,8 +4615,11 @@
         <f t="shared" si="3"/>
         <v>feb-2021</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O70" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4442,8 +4664,11 @@
         <f t="shared" si="3"/>
         <v>mar-2021</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O71" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4488,8 +4713,11 @@
         <f t="shared" si="3"/>
         <v>abr-2021</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O72" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4534,8 +4762,11 @@
         <f t="shared" si="3"/>
         <v>feb-2021</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O73" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4580,8 +4811,11 @@
         <f t="shared" si="3"/>
         <v>abr-2021</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O74" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4626,8 +4860,11 @@
         <f t="shared" si="3"/>
         <v>oct-2021</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O75" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4672,8 +4909,11 @@
         <f t="shared" si="3"/>
         <v>sep-2021</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O76" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4718,8 +4958,11 @@
         <f t="shared" si="3"/>
         <v>mar-2021</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O77" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4764,8 +5007,11 @@
         <f t="shared" si="3"/>
         <v>abr-2021</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O78" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -4810,8 +5056,11 @@
         <f t="shared" si="3"/>
         <v>ago-2021</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O79" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -4856,8 +5105,11 @@
         <f t="shared" si="3"/>
         <v>may-2021</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O80" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -4902,8 +5154,11 @@
         <f t="shared" si="3"/>
         <v>may-2021</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O81" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -4948,8 +5203,11 @@
         <f t="shared" si="3"/>
         <v>ene-2021</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O82" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -4994,8 +5252,11 @@
         <f t="shared" si="3"/>
         <v>mar-2021</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O83" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -5040,8 +5301,11 @@
         <f t="shared" si="3"/>
         <v>feb-2021</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O84" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -5086,8 +5350,11 @@
         <f t="shared" si="3"/>
         <v>abr-2021</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O85" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -5132,8 +5399,11 @@
         <f t="shared" si="3"/>
         <v>03/16/2021</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O86" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5178,8 +5448,11 @@
         <f t="shared" si="3"/>
         <v>03/16/2021</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O87" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5224,8 +5497,11 @@
         <f t="shared" si="3"/>
         <v>03/16/2021</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O88" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5270,8 +5546,11 @@
         <f t="shared" si="3"/>
         <v>03/16/2021</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O89" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5316,8 +5595,11 @@
         <f t="shared" si="3"/>
         <v>03/16/2021</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O90" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5362,8 +5644,11 @@
         <f t="shared" si="3"/>
         <v>03/16/2021</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O91" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5408,8 +5693,11 @@
         <f t="shared" si="3"/>
         <v>03/20/2021</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O92" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5454,8 +5742,11 @@
         <f t="shared" si="3"/>
         <v>03/21/2021</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O93" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5500,8 +5791,11 @@
         <f t="shared" si="3"/>
         <v>feb-2021</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O94" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5546,8 +5840,11 @@
         <f t="shared" si="3"/>
         <v>feb-2021</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O95" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5592,8 +5889,11 @@
         <f t="shared" si="3"/>
         <v>03/19/2021</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O96" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5638,8 +5938,11 @@
         <f t="shared" si="3"/>
         <v>03/20/2021</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O97" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -5684,8 +5987,11 @@
         <f t="shared" si="3"/>
         <v>03/19/2021</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O98" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -5730,8 +6036,11 @@
         <f t="shared" si="3"/>
         <v>03/21/2021</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O99" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -5776,8 +6085,11 @@
         <f t="shared" si="3"/>
         <v>03/15/2021</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O100" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -5822,8 +6134,11 @@
         <f t="shared" si="3"/>
         <v>03/26/2021</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O101" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -5868,8 +6183,11 @@
         <f t="shared" si="3"/>
         <v>03/26/2021</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O102" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -5914,8 +6232,11 @@
         <f t="shared" si="3"/>
         <v>03/29/2021</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O103" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -5960,8 +6281,11 @@
         <f t="shared" si="3"/>
         <v>03/28/2021</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O104" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -6006,8 +6330,11 @@
         <f t="shared" si="3"/>
         <v>03/29/2021</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O105" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -6052,8 +6379,11 @@
         <f t="shared" si="3"/>
         <v>03/28/2021</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O106" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -6098,8 +6428,11 @@
         <f t="shared" si="3"/>
         <v>03/26/2021</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O107" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -6144,8 +6477,11 @@
         <f t="shared" si="3"/>
         <v>03/31/2021</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O108" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -6190,8 +6526,11 @@
         <f t="shared" si="3"/>
         <v>mar-2021</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O109" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -6236,8 +6575,11 @@
         <f t="shared" si="3"/>
         <v>03/30/2021</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O110" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -6282,8 +6624,11 @@
         <f t="shared" si="3"/>
         <v>ene-2021</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O111" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -6328,8 +6673,11 @@
         <f t="shared" si="3"/>
         <v>04/18/2021</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O112" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -6374,8 +6722,11 @@
         <f t="shared" si="3"/>
         <v>04/18/2021</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O113" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -6420,8 +6771,11 @@
         <f t="shared" si="3"/>
         <v>04/18/2021</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O114" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -6466,8 +6820,11 @@
         <f t="shared" si="3"/>
         <v>04/15/2021</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O115" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -6512,8 +6869,11 @@
         <f t="shared" si="3"/>
         <v>04/24/2021</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O116" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -6558,8 +6918,11 @@
         <f t="shared" si="3"/>
         <v>04/24/2021</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O117" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -6604,8 +6967,11 @@
         <f t="shared" si="3"/>
         <v>04/24/2021</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O118" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -6650,8 +7016,11 @@
         <f t="shared" si="3"/>
         <v>04/21/2021</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O119" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -6696,8 +7065,11 @@
         <f t="shared" si="3"/>
         <v>04/21/2021</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O120" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -6742,8 +7114,11 @@
         <f t="shared" si="3"/>
         <v>04/22/2021</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O121" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -6788,8 +7163,11 @@
         <f t="shared" si="3"/>
         <v>04/20/2021</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O122" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -6834,8 +7212,11 @@
         <f t="shared" si="3"/>
         <v>sep-2021</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O123" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -6880,8 +7261,11 @@
         <f t="shared" si="3"/>
         <v>04/13/2021</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O124" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -6926,8 +7310,11 @@
         <f t="shared" si="3"/>
         <v>04/18/2021</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O125" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -6972,8 +7359,11 @@
         <f t="shared" si="3"/>
         <v>04/15/2021</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O126" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -7018,8 +7408,11 @@
         <f t="shared" si="3"/>
         <v>04/15/2021</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O127" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -7064,8 +7457,11 @@
         <f t="shared" si="3"/>
         <v>04/24/2021</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O128" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -7110,8 +7506,11 @@
         <f t="shared" si="3"/>
         <v>ene-2021</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O129" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -7156,8 +7555,11 @@
         <f t="shared" si="3"/>
         <v>04/24/2021</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O130" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -7202,8 +7604,11 @@
         <f t="shared" ref="N131:N194" si="5" xml:space="preserve"> TEXT(L131, "mmm-yyyy")</f>
         <v>04/23/2021</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O131" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -7248,8 +7653,11 @@
         <f t="shared" si="5"/>
         <v>04/21/2021</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O132" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -7294,8 +7702,11 @@
         <f t="shared" si="5"/>
         <v>04/19/2021</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O133" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -7340,8 +7751,11 @@
         <f t="shared" si="5"/>
         <v>04/17/2021</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O134" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -7386,8 +7800,11 @@
         <f t="shared" si="5"/>
         <v>nov-2021</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O135" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -7432,8 +7849,11 @@
         <f t="shared" si="5"/>
         <v>04/19/2021</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O136" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -7478,8 +7898,11 @@
         <f t="shared" si="5"/>
         <v>04/21/2021</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O137" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -7524,8 +7947,11 @@
         <f t="shared" si="5"/>
         <v>oct-2021</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O138" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -7570,8 +7996,11 @@
         <f t="shared" si="5"/>
         <v>04/13/2021</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O139" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -7616,8 +8045,11 @@
         <f t="shared" si="5"/>
         <v>04/24/2021</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O140" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -7662,8 +8094,11 @@
         <f t="shared" si="5"/>
         <v>04/25/2021</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O141" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -7708,8 +8143,11 @@
         <f t="shared" si="5"/>
         <v>04/26/2021</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O142" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -7754,8 +8192,11 @@
         <f t="shared" si="5"/>
         <v>dic-2021</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O143" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -7800,8 +8241,11 @@
         <f t="shared" si="5"/>
         <v>04/20/2021</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O144" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -7846,8 +8290,11 @@
         <f t="shared" si="5"/>
         <v>feb-2021</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O145" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -7892,8 +8339,11 @@
         <f t="shared" si="5"/>
         <v>jun-2021</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O146" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -7938,8 +8388,11 @@
         <f t="shared" si="5"/>
         <v>jul-2021</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O147" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -7984,8 +8437,11 @@
         <f t="shared" si="5"/>
         <v>may-2021</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O148" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -8030,8 +8486,11 @@
         <f t="shared" si="5"/>
         <v>ago-2021</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O149" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -8076,8 +8535,11 @@
         <f t="shared" si="5"/>
         <v>oct-2021</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O150" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -8122,8 +8584,11 @@
         <f t="shared" si="5"/>
         <v>oct-2021</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O151" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -8168,8 +8633,11 @@
         <f t="shared" si="5"/>
         <v>ene-2021</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O152" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -8214,8 +8682,11 @@
         <f t="shared" si="5"/>
         <v>feb-2021</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O153" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -8260,8 +8731,11 @@
         <f t="shared" si="5"/>
         <v>mar-2021</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O154" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -8306,8 +8780,11 @@
         <f t="shared" si="5"/>
         <v>feb-2021</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O155" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -8352,8 +8829,11 @@
         <f t="shared" si="5"/>
         <v>sep-2021</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O156" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -8398,8 +8878,11 @@
         <f t="shared" si="5"/>
         <v>feb-2021</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O157" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -8444,8 +8927,11 @@
         <f t="shared" si="5"/>
         <v>feb-2021</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O158" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -8490,8 +8976,11 @@
         <f t="shared" si="5"/>
         <v>mar-2021</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O159" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -8536,8 +9025,11 @@
         <f t="shared" si="5"/>
         <v>05/16/2021</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O160" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -8582,8 +9074,11 @@
         <f t="shared" si="5"/>
         <v>05/16/2021</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O161" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -8628,8 +9123,11 @@
         <f t="shared" si="5"/>
         <v>05/15/2021</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O162" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -8674,8 +9172,11 @@
         <f t="shared" si="5"/>
         <v>05/14/2021</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O163" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -8720,8 +9221,11 @@
         <f t="shared" si="5"/>
         <v>05/15/2021</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O164" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -8766,8 +9270,11 @@
         <f t="shared" si="5"/>
         <v>05/14/2021</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O165" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -8812,8 +9319,11 @@
         <f t="shared" si="5"/>
         <v>05/14/2021</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O166" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -8858,8 +9368,11 @@
         <f t="shared" si="5"/>
         <v>jun-2021</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O167" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -8904,8 +9417,11 @@
         <f t="shared" si="5"/>
         <v>05/15/2021</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O168" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -8950,8 +9466,11 @@
         <f t="shared" si="5"/>
         <v>05/18/2021</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O169" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -8996,8 +9515,11 @@
         <f t="shared" si="5"/>
         <v>05/17/2021</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O170" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -9042,8 +9564,11 @@
         <f t="shared" si="5"/>
         <v>05/17/2021</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O171" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -9088,8 +9613,11 @@
         <f t="shared" si="5"/>
         <v>05/24/2021</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O172" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -9134,8 +9662,11 @@
         <f t="shared" si="5"/>
         <v>06/19/2021</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O173" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -9180,8 +9711,11 @@
         <f t="shared" si="5"/>
         <v>06/28/2021</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O174" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -9226,8 +9760,11 @@
         <f t="shared" si="5"/>
         <v>06/29/2021</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O175" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -9272,8 +9809,11 @@
         <f t="shared" si="5"/>
         <v>06/25/2021</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O176" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -9318,8 +9858,11 @@
         <f t="shared" si="5"/>
         <v>06/25/2021</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O177" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -9364,8 +9907,11 @@
         <f t="shared" si="5"/>
         <v>ene-2021</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O178" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -9410,8 +9956,11 @@
         <f t="shared" si="5"/>
         <v>ene-2021</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O179" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -9456,8 +10005,11 @@
         <f t="shared" si="5"/>
         <v>jun-2021</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O180" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -9502,8 +10054,11 @@
         <f t="shared" si="5"/>
         <v>07/13/2021</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O181" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -9548,8 +10103,11 @@
         <f t="shared" si="5"/>
         <v>sep-2021</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O182" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -9594,8 +10152,11 @@
         <f t="shared" si="5"/>
         <v>07/17/2021</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O183" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -9640,8 +10201,11 @@
         <f t="shared" si="5"/>
         <v>07/13/2021</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O184" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -9686,8 +10250,11 @@
         <f t="shared" si="5"/>
         <v>07/21/2021</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O185" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -9732,8 +10299,11 @@
         <f t="shared" si="5"/>
         <v>07/26/2021</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O186" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -9778,8 +10348,11 @@
         <f t="shared" si="5"/>
         <v>07/31/2021</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O187" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -9824,8 +10397,11 @@
         <f t="shared" si="5"/>
         <v>mar-2021</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O188" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -9870,8 +10446,11 @@
         <f t="shared" si="5"/>
         <v>jul-2021</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O189" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -9916,8 +10495,11 @@
         <f t="shared" si="5"/>
         <v>jun-2021</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O190" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -9962,8 +10544,11 @@
         <f t="shared" si="5"/>
         <v>08/14/2021</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O191" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -10008,8 +10593,11 @@
         <f t="shared" si="5"/>
         <v>08/14/2021</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O192" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -10054,8 +10642,11 @@
         <f t="shared" si="5"/>
         <v>08/14/2021</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O193" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -10100,8 +10691,11 @@
         <f t="shared" si="5"/>
         <v>08/14/2021</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O194" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -10146,8 +10740,11 @@
         <f t="shared" ref="N195:N251" si="7" xml:space="preserve"> TEXT(L195, "mmm-yyyy")</f>
         <v>08/15/2021</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O195" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -10192,8 +10789,11 @@
         <f t="shared" si="7"/>
         <v>08/21/2021</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O196" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -10238,8 +10838,11 @@
         <f t="shared" si="7"/>
         <v>08/22/2021</v>
       </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O197" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -10284,8 +10887,11 @@
         <f t="shared" si="7"/>
         <v>08/25/2021</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O198" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -10330,8 +10936,11 @@
         <f t="shared" si="7"/>
         <v>08/24/2021</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O199" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -10376,8 +10985,11 @@
         <f t="shared" si="7"/>
         <v>08/18/2021</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O200" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -10422,8 +11034,11 @@
         <f t="shared" si="7"/>
         <v>08/27/2021</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O201" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -10468,8 +11083,11 @@
         <f t="shared" si="7"/>
         <v>08/27/2021</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O202" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -10514,8 +11132,11 @@
         <f t="shared" si="7"/>
         <v>oct-2021</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O203" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -10560,8 +11181,11 @@
         <f t="shared" si="7"/>
         <v>08/14/2021</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O204" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -10606,8 +11230,11 @@
         <f t="shared" si="7"/>
         <v>08/29/2021</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O205" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -10652,8 +11279,11 @@
         <f t="shared" si="7"/>
         <v>08/29/2021</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O206" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -10698,8 +11328,11 @@
         <f t="shared" si="7"/>
         <v>08/29/2021</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O207" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -10744,8 +11377,11 @@
         <f t="shared" si="7"/>
         <v>08/28/2021</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O208" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -10790,8 +11426,11 @@
         <f t="shared" si="7"/>
         <v>08/29/2021</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O209" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -10836,8 +11475,11 @@
         <f t="shared" si="7"/>
         <v>08/29/2021</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O210" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -10882,8 +11524,11 @@
         <f t="shared" si="7"/>
         <v>08/30/2021</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O211" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -10928,8 +11573,11 @@
         <f t="shared" si="7"/>
         <v>jun-2021</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O212" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -10974,8 +11622,11 @@
         <f t="shared" si="7"/>
         <v>abr-2021</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O213" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -11020,8 +11671,11 @@
         <f t="shared" si="7"/>
         <v>08/29/2021</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O214" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -11066,8 +11720,11 @@
         <f t="shared" si="7"/>
         <v>08/31/2021</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O215" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -11112,8 +11769,11 @@
         <f t="shared" si="7"/>
         <v>08/31/2021</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O216" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -11158,8 +11818,11 @@
         <f t="shared" si="7"/>
         <v>08/29/2021</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O217" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -11204,8 +11867,11 @@
         <f t="shared" si="7"/>
         <v>abr-2021</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O218" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -11250,8 +11916,11 @@
         <f t="shared" si="7"/>
         <v>jul-2021</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O219" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -11296,8 +11965,11 @@
         <f t="shared" si="7"/>
         <v>ago-2021</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O220" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -11342,8 +12014,11 @@
         <f t="shared" si="7"/>
         <v>ago-2021</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O221" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -11388,8 +12063,11 @@
         <f t="shared" si="7"/>
         <v>ago-2021</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O222" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -11434,8 +12112,11 @@
         <f t="shared" si="7"/>
         <v>ago-2021</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O223" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -11480,8 +12161,11 @@
         <f t="shared" si="7"/>
         <v>ago-2021</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O224" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -11526,8 +12210,11 @@
         <f t="shared" si="7"/>
         <v>ago-2021</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O225" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -11572,8 +12259,11 @@
         <f t="shared" si="7"/>
         <v>ago-2021</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O226" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -11618,8 +12308,11 @@
         <f t="shared" si="7"/>
         <v>jun-2021</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O227" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -11664,8 +12357,11 @@
         <f t="shared" si="7"/>
         <v>09/15/2021</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O228" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -11710,8 +12406,11 @@
         <f t="shared" si="7"/>
         <v>ene-2021</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O229" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -11756,8 +12455,11 @@
         <f t="shared" si="7"/>
         <v>10/25/2021</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O230" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -11802,8 +12504,11 @@
         <f t="shared" si="7"/>
         <v>may-2021</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O231" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -11848,8 +12553,11 @@
         <f t="shared" si="7"/>
         <v>may-2021</v>
       </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O232" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -11894,8 +12602,11 @@
         <f t="shared" si="7"/>
         <v>abr-2021</v>
       </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O233" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -11940,8 +12651,11 @@
         <f t="shared" si="7"/>
         <v>sep-2021</v>
       </c>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O234" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -11986,8 +12700,11 @@
         <f t="shared" si="7"/>
         <v>11/19/2021</v>
       </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O235" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -12032,8 +12749,11 @@
         <f t="shared" si="7"/>
         <v>11/20/2021</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O236" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -12078,8 +12798,11 @@
         <f t="shared" si="7"/>
         <v>11/22/2021</v>
       </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O237" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -12124,8 +12847,11 @@
         <f t="shared" si="7"/>
         <v>11/26/2021</v>
       </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O238" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -12170,8 +12896,11 @@
         <f t="shared" si="7"/>
         <v>11/24/2021</v>
       </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O239" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -12216,8 +12945,11 @@
         <f t="shared" si="7"/>
         <v>ene-2021</v>
       </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O240" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -12262,8 +12994,11 @@
         <f t="shared" si="7"/>
         <v>ene-2021</v>
       </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O241" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -12308,8 +13043,11 @@
         <f t="shared" si="7"/>
         <v>11/13/2021</v>
       </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O242" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -12354,8 +13092,11 @@
         <f t="shared" si="7"/>
         <v>ene-2021</v>
       </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O243" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -12400,8 +13141,11 @@
         <f t="shared" si="7"/>
         <v>12/14/2021</v>
       </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O244" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -12446,8 +13190,11 @@
         <f t="shared" si="7"/>
         <v>dic-2021</v>
       </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O245" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -12492,8 +13239,11 @@
         <f t="shared" si="7"/>
         <v>12/20/2021</v>
       </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O246" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -12538,8 +13288,11 @@
         <f t="shared" si="7"/>
         <v>12/19/2021</v>
       </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O247" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -12584,8 +13337,11 @@
         <f t="shared" si="7"/>
         <v>12/17/2021</v>
       </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O248" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -12630,8 +13386,11 @@
         <f t="shared" si="7"/>
         <v>12/18/2021</v>
       </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O249" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -12676,8 +13435,11 @@
         <f t="shared" si="7"/>
         <v>12/20/2021</v>
       </c>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O250" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -12722,9 +13484,15 @@
         <f t="shared" si="7"/>
         <v>12/21/2021</v>
       </c>
+      <c r="O251" s="6" t="s">
+        <v>246</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:N251" xr:uid="{A87353C5-2ABF-6842-BB28-922F55B6FC01}"/>
+  <mergeCells count="1">
+    <mergeCell ref="O1:P1"/>
+  </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
